--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,28 +747,28 @@
         <v>4000</v>
       </c>
       <c r="E8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2900</v>
       </c>
       <c r="M8" s="3">
         <v>3400</v>
@@ -770,101 +777,119 @@
         <v>2900</v>
       </c>
       <c r="O8" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="P8" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="3">
         <v>1300</v>
       </c>
       <c r="F9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I9" s="3">
         <v>1100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1000</v>
       </c>
       <c r="J9" s="3">
         <v>1000</v>
       </c>
       <c r="K9" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L9" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="3">
         <v>900</v>
       </c>
       <c r="N9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O9" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>700</v>
+      </c>
+      <c r="R9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2100</v>
       </c>
       <c r="M10" s="3">
         <v>2500</v>
       </c>
       <c r="N10" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="O10" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="P10" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,11 +1034,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1007,14 +1046,20 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,10 +1079,10 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1055,10 +1100,16 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1134,49 @@
         <v>3800</v>
       </c>
       <c r="E17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2700</v>
       </c>
       <c r="N17" s="3">
         <v>2500</v>
       </c>
       <c r="O17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1137,31 +1196,37 @@
         <v>200</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
-        <v>300</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>300</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,20 +1254,20 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1214,16 +1281,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>700</v>
       </c>
       <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>700</v>
+      </c>
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>600</v>
       </c>
       <c r="L21" s="3">
         <v>700</v>
       </c>
       <c r="M21" s="3">
+        <v>600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>700</v>
+      </c>
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1404,49 @@
         <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
-        <v>300</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1366,40 +1457,46 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,22 +1554,22 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>400</v>
@@ -1475,7 +1578,7 @@
         <v>300</v>
       </c>
       <c r="M26" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N26" s="3">
         <v>300</v>
@@ -1484,10 +1587,16 @@
         <v>500</v>
       </c>
       <c r="P26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>500</v>
+      </c>
+      <c r="R26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,22 +1604,22 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
       </c>
       <c r="K27" s="3">
         <v>400</v>
@@ -1519,7 +1628,7 @@
         <v>300</v>
       </c>
       <c r="M27" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N27" s="3">
         <v>300</v>
@@ -1528,10 +1637,16 @@
         <v>500</v>
       </c>
       <c r="P27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>500</v>
+      </c>
+      <c r="R27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-100</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>-100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>400</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>400</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,20 +1854,20 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1742,16 +1881,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,31 +1904,31 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>300</v>
+      </c>
+      <c r="M33" s="3">
         <v>700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>500</v>
       </c>
       <c r="N33" s="3">
         <v>300</v>
@@ -1792,10 +1937,16 @@
         <v>500</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>500</v>
+      </c>
+      <c r="R33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,31 +2004,31 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>300</v>
+      </c>
+      <c r="M35" s="3">
         <v>700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>500</v>
       </c>
       <c r="N35" s="3">
         <v>300</v>
@@ -1880,59 +2037,71 @@
         <v>500</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>500</v>
+      </c>
+      <c r="R35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E41" s="3">
         <v>15800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="G41" s="3">
         <v>15200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>19400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,43 +2234,49 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2200</v>
       </c>
       <c r="J43" s="3">
         <v>2200</v>
       </c>
       <c r="K43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1300</v>
       </c>
       <c r="O43" s="3">
         <v>1300</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,20 +2349,20 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
@@ -2173,66 +2370,78 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
-        <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="E46" s="3">
         <v>18000</v>
       </c>
       <c r="F46" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H46" s="3">
         <v>17600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>19000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>21800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,41 +2484,47 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>2900</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
-        <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
-      </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
@@ -2319,52 +2534,64 @@
       <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F49" s="3">
         <v>11400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>9800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>10000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>9000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>9700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,25 +2684,31 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2481,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -2493,10 +2732,16 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30100</v>
+        <v>32600</v>
       </c>
       <c r="E54" s="3">
-        <v>30100</v>
+        <v>32400</v>
       </c>
       <c r="F54" s="3">
         <v>30100</v>
       </c>
       <c r="G54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="I54" s="3">
         <v>29000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>31900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>18400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>17500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>14300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,16 +2889,16 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -2646,25 +2907,31 @@
         <v>500</v>
       </c>
       <c r="K57" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
-        <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
-      </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2692,11 +2959,11 @@
       <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
+        <v>300</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -2707,69 +2974,81 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1600</v>
       </c>
       <c r="L59" s="3">
         <v>1700</v>
       </c>
       <c r="M59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2600</v>
       </c>
       <c r="I60" s="3">
         <v>2600</v>
@@ -2778,33 +3057,39 @@
         <v>2600</v>
       </c>
       <c r="K60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M60" s="3">
         <v>2500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2400</v>
       </c>
       <c r="N60" s="3">
         <v>2200</v>
       </c>
       <c r="O60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
@@ -2813,10 +3098,10 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
@@ -2825,10 +3110,10 @@
         <v>600</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
       <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>600</v>
+      </c>
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
-        <v>200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>200</v>
-      </c>
       <c r="P62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3800</v>
       </c>
       <c r="J66" s="3">
         <v>3800</v>
       </c>
       <c r="K66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2300</v>
       </c>
       <c r="P66" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E72" s="3">
         <v>3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G72" s="3">
         <v>3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>3100</v>
       </c>
       <c r="I72" s="3">
         <v>3200</v>
       </c>
       <c r="J72" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L72" s="3">
         <v>2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F76" s="3">
         <v>26400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>26300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>26000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>25700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>28100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,31 +3964,31 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>300</v>
+      </c>
+      <c r="M81" s="3">
         <v>700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>500</v>
       </c>
       <c r="N81" s="3">
         <v>300</v>
@@ -3608,10 +3997,16 @@
         <v>500</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>500</v>
+      </c>
+      <c r="R81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3649,16 +4046,16 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -3670,10 +4067,16 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>900</v>
+      </c>
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
-        <v>300</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>300</v>
+      </c>
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>800</v>
       </c>
       <c r="N89" s="3">
         <v>600</v>
       </c>
       <c r="O89" s="3">
+        <v>800</v>
+      </c>
+      <c r="P89" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,20 +4393,22 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3990,16 +4431,22 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-300</v>
       </c>
       <c r="N94" s="3">
         <v>-300</v>
       </c>
       <c r="O94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4166,19 +4633,19 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-200</v>
       </c>
       <c r="K96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M96" s="3">
         <v>-100</v>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,28 +4824,28 @@
         <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>13200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4363,13 +4854,19 @@
         <v>-100</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4389,14 +4886,14 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>200</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>12600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
-        <v>300</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>300</v>
+      </c>
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
       <c r="P102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>200</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="E8" s="3">
         <v>4000</v>
@@ -753,66 +757,69 @@
         <v>4000</v>
       </c>
       <c r="G8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="3">
         <v>1300</v>
       </c>
       <c r="F9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G9" s="3">
         <v>1200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1300</v>
       </c>
       <c r="H9" s="3">
         <v>1300</v>
       </c>
       <c r="I9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="3">
         <v>1100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1000</v>
       </c>
       <c r="K9" s="3">
         <v>1000</v>
@@ -821,16 +828,16 @@
         <v>1000</v>
       </c>
       <c r="M9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
-      </c>
-      <c r="P9" s="3">
-        <v>700</v>
       </c>
       <c r="Q9" s="3">
         <v>700</v>
@@ -838,58 +845,64 @@
       <c r="R9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="E10" s="3">
         <v>2700</v>
       </c>
       <c r="F10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G10" s="3">
         <v>2800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2900</v>
       </c>
       <c r="H10" s="3">
         <v>2900</v>
       </c>
       <c r="I10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2500</v>
       </c>
       <c r="M10" s="3">
         <v>2500</v>
       </c>
       <c r="N10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O10" s="3">
         <v>2100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1108,7 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1106,10 +1129,13 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4000</v>
       </c>
       <c r="H17" s="3">
         <v>4000</v>
       </c>
       <c r="I17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3200</v>
       </c>
       <c r="L17" s="3">
         <v>3200</v>
       </c>
       <c r="M17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
-        <v>200</v>
-      </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>200</v>
-      </c>
       <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>200</v>
-      </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,32 +1278,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>200</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1287,66 +1321,72 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>700</v>
       </c>
       <c r="G21" s="3">
         <v>700</v>
       </c>
       <c r="H21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I21" s="3">
         <v>600</v>
       </c>
       <c r="J21" s="3">
+        <v>600</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,23 +1435,26 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
       <c r="H23" s="3">
         <v>200</v>
       </c>
@@ -1419,84 +1462,90 @@
         <v>200</v>
       </c>
       <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,20 +1594,23 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
       <c r="G26" s="3">
         <v>200</v>
       </c>
@@ -1566,49 +1618,52 @@
         <v>200</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
       <c r="G27" s="3">
         <v>200</v>
       </c>
@@ -1616,37 +1671,40 @@
         <v>200</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,32 +1912,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1887,28 +1957,31 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
       <c r="G33" s="3">
         <v>200</v>
       </c>
@@ -1916,37 +1989,40 @@
         <v>200</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,20 +2071,23 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
       <c r="G35" s="3">
         <v>200</v>
       </c>
@@ -2016,92 +2095,98 @@
         <v>200</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>16200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>15800</v>
       </c>
       <c r="F41" s="3">
         <v>15800</v>
       </c>
       <c r="G41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H41" s="3">
         <v>15200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,31 +2330,34 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2100</v>
       </c>
       <c r="F43" s="3">
         <v>2100</v>
       </c>
       <c r="G43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2200</v>
       </c>
       <c r="K43" s="3">
         <v>2200</v>
@@ -2273,13 +2366,13 @@
         <v>2200</v>
       </c>
       <c r="M43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1300</v>
       </c>
       <c r="P43" s="3">
         <v>1300</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,32 +2436,35 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>200</v>
-      </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
@@ -2376,72 +2475,78 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
       </c>
       <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E46" s="3">
         <v>18600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>6800</v>
       </c>
       <c r="R46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,22 +2595,25 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2514,7 +2622,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2523,11 +2631,11 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>200</v>
-      </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
@@ -2540,58 +2648,64 @@
       <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E49" s="3">
         <v>10700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,20 +2819,20 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
-        <v>200</v>
-      </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -2726,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -2738,10 +2858,13 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,19 +2913,22 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E54" s="3">
         <v>32600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>30100</v>
       </c>
       <c r="G54" s="3">
         <v>30100</v>
@@ -2811,37 +2937,40 @@
         <v>30100</v>
       </c>
       <c r="I54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J54" s="3">
         <v>29000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,40 +3020,40 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2965,8 +3099,8 @@
       <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>300</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -2980,78 +3114,84 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="E59" s="3">
         <v>3300</v>
       </c>
       <c r="F59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1700</v>
       </c>
       <c r="O59" s="3">
         <v>1700</v>
       </c>
       <c r="P59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1800</v>
       </c>
       <c r="R59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3000</v>
       </c>
       <c r="G60" s="3">
         <v>3000</v>
       </c>
       <c r="H60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I60" s="3">
         <v>3300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2600</v>
       </c>
       <c r="J60" s="3">
         <v>2600</v>
@@ -3063,25 +3203,28 @@
         <v>2600</v>
       </c>
       <c r="M60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2100</v>
       </c>
       <c r="R60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3092,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -3104,7 +3247,7 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
@@ -3116,7 +3259,7 @@
         <v>600</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3130,31 +3273,34 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
@@ -3163,25 +3309,28 @@
         <v>600</v>
       </c>
       <c r="M62" s="3">
+        <v>600</v>
+      </c>
+      <c r="N62" s="3">
         <v>700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
       </c>
       <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,31 +3485,34 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3800</v>
       </c>
       <c r="K66" s="3">
         <v>3800</v>
@@ -3363,25 +3521,28 @@
         <v>3800</v>
       </c>
       <c r="M66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E72" s="3">
         <v>4100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>3800</v>
       </c>
       <c r="F72" s="3">
         <v>3800</v>
       </c>
       <c r="G72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H72" s="3">
         <v>3600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E76" s="3">
         <v>26200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,75 +4089,81 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
       <c r="G81" s="3">
         <v>200</v>
       </c>
@@ -3976,37 +4171,40 @@
         <v>200</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4052,13 +4251,13 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4073,10 +4272,13 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,23 +4615,24 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4437,16 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,34 +4784,34 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-300</v>
       </c>
       <c r="O94" s="3">
         <v>-300</v>
@@ -4590,13 +4820,16 @@
         <v>-300</v>
       </c>
       <c r="Q94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4639,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-200</v>
@@ -4648,7 +4882,7 @@
         <v>-200</v>
       </c>
       <c r="M96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N96" s="3">
         <v>-100</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,49 +5058,52 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4892,11 +5141,11 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>200</v>
-      </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,7 +755,7 @@
         <v>4900</v>
       </c>
       <c r="E8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="F8" s="3">
         <v>4000</v>
@@ -760,43 +764,46 @@
         <v>4000</v>
       </c>
       <c r="H8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,25 +811,25 @@
         <v>1400</v>
       </c>
       <c r="E9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F9" s="3">
         <v>1300</v>
       </c>
       <c r="G9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H9" s="3">
         <v>1200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1300</v>
       </c>
       <c r="I9" s="3">
         <v>1300</v>
       </c>
       <c r="J9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1000</v>
       </c>
       <c r="L9" s="3">
         <v>1000</v>
@@ -831,16 +838,16 @@
         <v>1000</v>
       </c>
       <c r="N9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>700</v>
       </c>
       <c r="R9" s="3">
         <v>700</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,52 +867,55 @@
         <v>3500</v>
       </c>
       <c r="E10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="F10" s="3">
         <v>2700</v>
       </c>
       <c r="G10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H10" s="3">
         <v>2800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2900</v>
       </c>
       <c r="I10" s="3">
         <v>2900</v>
       </c>
       <c r="J10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2500</v>
       </c>
       <c r="N10" s="3">
         <v>2500</v>
       </c>
       <c r="O10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1134,7 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1132,10 +1155,13 @@
         <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4000</v>
       </c>
       <c r="I17" s="3">
         <v>4000</v>
       </c>
       <c r="J17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3200</v>
       </c>
       <c r="M17" s="3">
         <v>3200</v>
       </c>
       <c r="N17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
-        <v>200</v>
-      </c>
       <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>200</v>
-      </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>200</v>
-      </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
-        <v>300</v>
-      </c>
       <c r="N18" s="3">
+        <v>300</v>
+      </c>
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,26 +1322,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1324,16 +1358,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>1400</v>
       </c>
       <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>700</v>
       </c>
       <c r="H21" s="3">
         <v>700</v>
       </c>
       <c r="I21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J21" s="3">
         <v>600</v>
       </c>
       <c r="K21" s="3">
+        <v>600</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,25 +1478,28 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
-        <v>300</v>
-      </c>
       <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>300</v>
-      </c>
       <c r="H23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I23" s="3">
         <v>200</v>
@@ -1465,87 +1508,93 @@
         <v>200</v>
       </c>
       <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
       <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,14 +1658,14 @@
         <v>800</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
         <v>200</v>
       </c>
@@ -1621,37 +1673,40 @@
         <v>200</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
-        <v>300</v>
-      </c>
       <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
-        <v>300</v>
-      </c>
       <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>300</v>
-      </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,14 +1714,14 @@
         <v>800</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
         <v>200</v>
       </c>
@@ -1674,37 +1729,40 @@
         <v>200</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
-        <v>300</v>
-      </c>
       <c r="N27" s="3">
+        <v>300</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
-        <v>300</v>
-      </c>
       <c r="P27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>300</v>
-      </c>
       <c r="R27" s="3">
+        <v>300</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,26 +1994,26 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1960,16 +2030,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,14 +2050,14 @@
         <v>800</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
         <v>200</v>
       </c>
@@ -1992,37 +2065,40 @@
         <v>200</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
-        <v>300</v>
-      </c>
       <c r="N33" s="3">
+        <v>300</v>
+      </c>
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
-        <v>300</v>
-      </c>
       <c r="P33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>300</v>
-      </c>
       <c r="R33" s="3">
+        <v>300</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,14 +2162,14 @@
         <v>800</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
         <v>200</v>
       </c>
@@ -2098,95 +2177,101 @@
         <v>200</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
-        <v>300</v>
-      </c>
       <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
-        <v>300</v>
-      </c>
       <c r="P35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>300</v>
-      </c>
       <c r="R35" s="3">
+        <v>300</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>15800</v>
       </c>
       <c r="G41" s="3">
         <v>15800</v>
       </c>
       <c r="H41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I41" s="3">
         <v>15200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,34 +2423,37 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2100</v>
       </c>
       <c r="G43" s="3">
         <v>2100</v>
       </c>
       <c r="H43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2200</v>
       </c>
       <c r="L43" s="3">
         <v>2200</v>
@@ -2369,13 +2462,13 @@
         <v>2200</v>
       </c>
       <c r="N43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1300</v>
       </c>
       <c r="Q43" s="3">
         <v>1300</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,35 +2535,38 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
@@ -2478,75 +2577,81 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
       </c>
       <c r="Q45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E46" s="3">
         <v>20000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>6800</v>
       </c>
       <c r="S46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,25 +2703,28 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
-        <v>300</v>
-      </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2625,7 +2733,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2634,11 +2742,11 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>200</v>
-      </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
@@ -2651,61 +2759,67 @@
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E49" s="3">
         <v>10400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +2927,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2849,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -2861,10 +2981,13 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,22 +3039,25 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E54" s="3">
         <v>33500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>30100</v>
       </c>
       <c r="H54" s="3">
         <v>30100</v>
@@ -2940,37 +3066,40 @@
         <v>30100</v>
       </c>
       <c r="J54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K54" s="3">
         <v>29000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,49 +3154,52 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
-        <v>300</v>
-      </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3102,8 +3236,8 @@
       <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>300</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,75 +3263,78 @@
         <v>4000</v>
       </c>
       <c r="E59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="F59" s="3">
         <v>3300</v>
       </c>
       <c r="G59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1700</v>
       </c>
       <c r="P59" s="3">
         <v>1700</v>
       </c>
       <c r="Q59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R59" s="3">
         <v>1900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1800</v>
       </c>
       <c r="S59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3000</v>
       </c>
       <c r="H60" s="3">
         <v>3000</v>
       </c>
       <c r="I60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J60" s="3">
         <v>3300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2600</v>
       </c>
       <c r="K60" s="3">
         <v>2600</v>
@@ -3206,25 +3346,28 @@
         <v>2600</v>
       </c>
       <c r="N60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2100</v>
       </c>
       <c r="S60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3238,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -3250,7 +3393,7 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>600</v>
@@ -3262,7 +3405,7 @@
         <v>600</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3276,34 +3419,37 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
@@ -3312,25 +3458,28 @@
         <v>600</v>
       </c>
       <c r="N62" s="3">
+        <v>600</v>
+      </c>
+      <c r="O62" s="3">
         <v>700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
       <c r="S62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,34 +3643,37 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3800</v>
       </c>
       <c r="L66" s="3">
         <v>3800</v>
@@ -3524,25 +3682,28 @@
         <v>3800</v>
       </c>
       <c r="N66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E72" s="3">
         <v>4800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3800</v>
       </c>
       <c r="G72" s="3">
         <v>3800</v>
       </c>
       <c r="H72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I72" s="3">
         <v>3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E76" s="3">
         <v>26500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,14 +4354,14 @@
         <v>800</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
         <v>200</v>
       </c>
@@ -4174,37 +4369,40 @@
         <v>200</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
-        <v>300</v>
-      </c>
       <c r="N81" s="3">
+        <v>300</v>
+      </c>
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
-        <v>300</v>
-      </c>
       <c r="P81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>300</v>
-      </c>
       <c r="R81" s="3">
+        <v>300</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -4254,13 +4453,13 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -4275,10 +4474,13 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
-        <v>300</v>
-      </c>
       <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,26 +4836,27 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4661,16 +4882,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,34 +5017,34 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-300</v>
       </c>
       <c r="P94" s="3">
         <v>-300</v>
@@ -4823,13 +5053,16 @@
         <v>-300</v>
       </c>
       <c r="R94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4876,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-200</v>
@@ -4885,7 +5119,7 @@
         <v>-200</v>
       </c>
       <c r="N96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O96" s="3">
         <v>-100</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,52 +5304,55 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5144,11 +5393,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
       <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
-        <v>300</v>
-      </c>
       <c r="P102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>300</v>
-      </c>
       <c r="R102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,103 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E8" s="3">
         <v>4900</v>
       </c>
       <c r="F8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="G8" s="3">
         <v>4000</v>
@@ -767,43 +770,46 @@
         <v>4000</v>
       </c>
       <c r="I8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,25 +820,25 @@
         <v>1400</v>
       </c>
       <c r="F9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="3">
         <v>1300</v>
       </c>
       <c r="H9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1300</v>
       </c>
       <c r="J9" s="3">
         <v>1300</v>
       </c>
       <c r="K9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L9" s="3">
         <v>1100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1000</v>
       </c>
       <c r="M9" s="3">
         <v>1000</v>
@@ -841,16 +847,16 @@
         <v>1000</v>
       </c>
       <c r="O9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
-      </c>
-      <c r="R9" s="3">
-        <v>700</v>
       </c>
       <c r="S9" s="3">
         <v>700</v>
@@ -858,64 +864,70 @@
       <c r="T9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E10" s="3">
         <v>3500</v>
       </c>
       <c r="F10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="G10" s="3">
         <v>2700</v>
       </c>
       <c r="H10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I10" s="3">
         <v>2800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2900</v>
       </c>
       <c r="J10" s="3">
         <v>2900</v>
       </c>
       <c r="K10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2500</v>
       </c>
       <c r="O10" s="3">
         <v>2500</v>
       </c>
       <c r="P10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1086,8 +1105,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1098,14 +1117,17 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1159,7 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1158,10 +1180,13 @@
         <v>100</v>
       </c>
       <c r="T15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4000</v>
       </c>
       <c r="J17" s="3">
         <v>4000</v>
       </c>
       <c r="K17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3200</v>
       </c>
       <c r="N17" s="3">
         <v>3200</v>
       </c>
       <c r="O17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
-        <v>200</v>
-      </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>200</v>
-      </c>
       <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>200</v>
-      </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>200</v>
-      </c>
       <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
-        <v>300</v>
-      </c>
       <c r="O18" s="3">
+        <v>300</v>
+      </c>
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,26 +1358,26 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>200</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1361,72 +1394,78 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E21" s="3">
         <v>1400</v>
       </c>
       <c r="F21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>700</v>
       </c>
       <c r="I21" s="3">
         <v>700</v>
       </c>
       <c r="J21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K21" s="3">
         <v>600</v>
       </c>
       <c r="L21" s="3">
+        <v>600</v>
+      </c>
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,28 +1520,31 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
-        <v>300</v>
-      </c>
       <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>300</v>
-      </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>200</v>
@@ -1511,90 +1553,96 @@
         <v>200</v>
       </c>
       <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
-        <v>300</v>
-      </c>
       <c r="O23" s="3">
+        <v>300</v>
+      </c>
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,26 +1697,29 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>800</v>
       </c>
       <c r="F26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
       <c r="I26" s="3">
         <v>200</v>
       </c>
@@ -1676,55 +1727,58 @@
         <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
-        <v>300</v>
-      </c>
       <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>300</v>
-      </c>
       <c r="Q26" s="3">
+        <v>300</v>
+      </c>
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
-        <v>300</v>
-      </c>
       <c r="S26" s="3">
+        <v>300</v>
+      </c>
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
         <v>800</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
       <c r="I27" s="3">
         <v>200</v>
       </c>
@@ -1732,37 +1786,40 @@
         <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
-        <v>300</v>
-      </c>
       <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>300</v>
-      </c>
       <c r="Q27" s="3">
+        <v>300</v>
+      </c>
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
-        <v>300</v>
-      </c>
       <c r="S27" s="3">
+        <v>300</v>
+      </c>
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,26 +2066,26 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2033,34 +2102,37 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>800</v>
       </c>
       <c r="F33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
       <c r="I33" s="3">
         <v>200</v>
       </c>
@@ -2068,37 +2140,40 @@
         <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
-        <v>300</v>
-      </c>
       <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
-        <v>300</v>
-      </c>
       <c r="Q33" s="3">
+        <v>300</v>
+      </c>
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
-        <v>300</v>
-      </c>
       <c r="S33" s="3">
+        <v>300</v>
+      </c>
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,26 +2228,29 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>800</v>
       </c>
       <c r="F35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
       <c r="I35" s="3">
         <v>200</v>
       </c>
@@ -2180,98 +2258,104 @@
         <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
-        <v>300</v>
-      </c>
       <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
-        <v>300</v>
-      </c>
       <c r="Q35" s="3">
+        <v>300</v>
+      </c>
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
-        <v>300</v>
-      </c>
       <c r="S35" s="3">
+        <v>300</v>
+      </c>
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E41" s="3">
         <v>18400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>15800</v>
       </c>
       <c r="H41" s="3">
         <v>15800</v>
       </c>
       <c r="I41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J41" s="3">
         <v>15200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,37 +2515,40 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2100</v>
       </c>
       <c r="H43" s="3">
         <v>2100</v>
       </c>
       <c r="I43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2200</v>
       </c>
       <c r="M43" s="3">
         <v>2200</v>
@@ -2465,13 +2557,13 @@
         <v>2200</v>
       </c>
       <c r="O43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1300</v>
       </c>
       <c r="R43" s="3">
         <v>1300</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,38 +2633,41 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
@@ -2580,78 +2678,84 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>400</v>
       </c>
       <c r="R45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E46" s="3">
         <v>21100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>6800</v>
       </c>
       <c r="T46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,28 +2810,31 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
-        <v>300</v>
-      </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2736,7 +2843,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2745,11 +2852,11 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>200</v>
-      </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
@@ -2762,64 +2869,70 @@
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E49" s="3">
         <v>10100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,34 +3046,37 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2972,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -2984,10 +3103,13 @@
         <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,25 +3164,28 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E54" s="3">
         <v>34200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>30100</v>
       </c>
       <c r="I54" s="3">
         <v>30100</v>
@@ -3069,37 +3194,40 @@
         <v>30100</v>
       </c>
       <c r="K54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="L54" s="3">
         <v>29000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3271,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -3157,54 +3287,57 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
-        <v>300</v>
-      </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -3239,8 +3372,8 @@
       <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>300</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -3254,90 +3387,96 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="E59" s="3">
         <v>4000</v>
       </c>
       <c r="F59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="G59" s="3">
         <v>3300</v>
       </c>
       <c r="H59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1700</v>
       </c>
       <c r="Q59" s="3">
         <v>1700</v>
       </c>
       <c r="R59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S59" s="3">
         <v>1900</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1800</v>
       </c>
       <c r="T59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3000</v>
       </c>
       <c r="I60" s="3">
         <v>3000</v>
       </c>
       <c r="J60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2600</v>
       </c>
       <c r="L60" s="3">
         <v>2600</v>
@@ -3349,25 +3488,28 @@
         <v>2600</v>
       </c>
       <c r="O60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2100</v>
       </c>
       <c r="T60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3384,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
@@ -3396,7 +3538,7 @@
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>600</v>
@@ -3408,7 +3550,7 @@
         <v>600</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,28 +3576,28 @@
         <v>2200</v>
       </c>
       <c r="E62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
       </c>
       <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>600</v>
       </c>
       <c r="M62" s="3">
         <v>600</v>
@@ -3461,25 +3606,28 @@
         <v>600</v>
       </c>
       <c r="O62" s="3">
+        <v>600</v>
+      </c>
+      <c r="P62" s="3">
         <v>700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,37 +3800,40 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3800</v>
       </c>
       <c r="M66" s="3">
         <v>3800</v>
@@ -3685,25 +3842,28 @@
         <v>3800</v>
       </c>
       <c r="O66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E72" s="3">
         <v>5600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3800</v>
       </c>
       <c r="H72" s="3">
         <v>3800</v>
       </c>
       <c r="I72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J72" s="3">
         <v>3600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E76" s="3">
         <v>27400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,87 +4472,93 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
         <v>800</v>
       </c>
       <c r="F81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
       <c r="I81" s="3">
         <v>200</v>
       </c>
@@ -4372,37 +4566,40 @@
         <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
-        <v>300</v>
-      </c>
       <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
-        <v>300</v>
-      </c>
       <c r="Q81" s="3">
+        <v>300</v>
+      </c>
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
-        <v>300</v>
-      </c>
       <c r="S81" s="3">
+        <v>300</v>
+      </c>
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,7 +4630,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -4456,13 +4654,13 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4477,10 +4675,13 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
-        <v>300</v>
-      </c>
       <c r="J89" s="3">
+        <v>300</v>
+      </c>
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,29 +5056,30 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4885,16 +5105,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,34 +5249,34 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-300</v>
       </c>
       <c r="Q94" s="3">
         <v>-300</v>
@@ -5056,13 +5285,16 @@
         <v>-300</v>
       </c>
       <c r="S94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5113,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-200</v>
@@ -5122,7 +5355,7 @@
         <v>-200</v>
       </c>
       <c r="O96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P96" s="3">
         <v>-100</v>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,46 +5561,46 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5396,11 +5644,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
+        <v>200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
-        <v>300</v>
-      </c>
       <c r="Q102" s="3">
+        <v>300</v>
+      </c>
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>300</v>
-      </c>
       <c r="S102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T102" s="3">
+        <v>200</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4900</v>
       </c>
       <c r="F8" s="3">
         <v>4900</v>
       </c>
       <c r="G8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="H8" s="3">
         <v>4000</v>
@@ -773,43 +777,46 @@
         <v>4000</v>
       </c>
       <c r="J8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,25 +830,25 @@
         <v>1400</v>
       </c>
       <c r="G9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H9" s="3">
         <v>1300</v>
       </c>
       <c r="I9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="3">
         <v>1200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1300</v>
       </c>
       <c r="K9" s="3">
         <v>1300</v>
       </c>
       <c r="L9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="3">
         <v>1100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1000</v>
       </c>
       <c r="N9" s="3">
         <v>1000</v>
@@ -850,16 +857,16 @@
         <v>1000</v>
       </c>
       <c r="P9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
-      </c>
-      <c r="S9" s="3">
-        <v>700</v>
       </c>
       <c r="T9" s="3">
         <v>700</v>
@@ -867,67 +874,73 @@
       <c r="U9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3500</v>
       </c>
       <c r="F10" s="3">
         <v>3500</v>
       </c>
       <c r="G10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="H10" s="3">
         <v>2700</v>
       </c>
       <c r="I10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J10" s="3">
         <v>2800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2900</v>
       </c>
       <c r="K10" s="3">
         <v>2900</v>
       </c>
       <c r="L10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2500</v>
       </c>
       <c r="P10" s="3">
         <v>2500</v>
       </c>
       <c r="Q10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1093,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1108,8 +1128,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1120,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1185,7 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1183,10 +1206,13 @@
         <v>100</v>
       </c>
       <c r="U15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,117 +1241,123 @@
         <v>4300</v>
       </c>
       <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4000</v>
       </c>
       <c r="K17" s="3">
         <v>4000</v>
       </c>
       <c r="L17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3200</v>
       </c>
       <c r="O17" s="3">
         <v>3200</v>
       </c>
       <c r="P17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>200</v>
-      </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>200</v>
-      </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>200</v>
-      </c>
       <c r="N18" s="3">
+        <v>200</v>
+      </c>
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
-        <v>300</v>
-      </c>
       <c r="P18" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1361,26 +1395,26 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>200</v>
-      </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1397,75 +1431,81 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1400</v>
       </c>
       <c r="F21" s="3">
         <v>1400</v>
       </c>
       <c r="G21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>700</v>
       </c>
       <c r="J21" s="3">
         <v>700</v>
       </c>
       <c r="K21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L21" s="3">
         <v>600</v>
       </c>
       <c r="M21" s="3">
+        <v>600</v>
+      </c>
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,31 +1563,34 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
-        <v>300</v>
-      </c>
       <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
-        <v>300</v>
-      </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
@@ -1556,93 +1599,99 @@
         <v>200</v>
       </c>
       <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
-        <v>300</v>
-      </c>
       <c r="P23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>300</v>
-      </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,29 +1749,32 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F26" s="3">
         <v>800</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>200</v>
-      </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
@@ -1730,58 +1782,61 @@
         <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
-        <v>300</v>
-      </c>
       <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>300</v>
-      </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
-        <v>300</v>
-      </c>
       <c r="T26" s="3">
+        <v>300</v>
+      </c>
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F27" s="3">
         <v>800</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>200</v>
-      </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
@@ -1789,37 +1844,40 @@
         <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
-        <v>300</v>
-      </c>
       <c r="P27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>300</v>
-      </c>
       <c r="R27" s="3">
+        <v>300</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
-        <v>300</v>
-      </c>
       <c r="T27" s="3">
+        <v>300</v>
+      </c>
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,11 +1967,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2069,26 +2139,26 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2105,37 +2175,40 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F33" s="3">
         <v>800</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
@@ -2143,37 +2216,40 @@
         <v>200</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
-        <v>300</v>
-      </c>
       <c r="P33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
-        <v>300</v>
-      </c>
       <c r="R33" s="3">
+        <v>300</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
-        <v>300</v>
-      </c>
       <c r="T33" s="3">
+        <v>300</v>
+      </c>
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,29 +2307,32 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F35" s="3">
         <v>800</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
@@ -2261,101 +2340,107 @@
         <v>200</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
-        <v>300</v>
-      </c>
       <c r="P35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
-        <v>300</v>
-      </c>
       <c r="R35" s="3">
+        <v>300</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
-        <v>300</v>
-      </c>
       <c r="T35" s="3">
+        <v>300</v>
+      </c>
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E41" s="3">
         <v>19600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>15800</v>
       </c>
       <c r="I41" s="3">
         <v>15800</v>
       </c>
       <c r="J41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K41" s="3">
         <v>15200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,40 +2608,43 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2100</v>
       </c>
       <c r="I43" s="3">
         <v>2100</v>
       </c>
       <c r="J43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2200</v>
       </c>
       <c r="N43" s="3">
         <v>2200</v>
@@ -2560,13 +2653,13 @@
         <v>2200</v>
       </c>
       <c r="P43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1300</v>
       </c>
       <c r="S43" s="3">
         <v>1300</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,41 +2732,44 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
@@ -2681,81 +2780,87 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>400</v>
       </c>
       <c r="S45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E46" s="3">
         <v>22400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>6800</v>
       </c>
       <c r="U46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,31 +2918,34 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
-        <v>300</v>
-      </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2846,7 +2954,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -2855,11 +2963,11 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
-        <v>200</v>
-      </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
@@ -2872,67 +2980,73 @@
       <c r="U48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E49" s="3">
         <v>9800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3058,28 +3178,28 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3094,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -3106,10 +3226,13 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,28 +3290,31 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E54" s="3">
         <v>34900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>30100</v>
       </c>
       <c r="J54" s="3">
         <v>30100</v>
@@ -3197,37 +3323,40 @@
         <v>30100</v>
       </c>
       <c r="L54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="M54" s="3">
         <v>29000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,16 +3402,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
@@ -3290,57 +3421,60 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
-        <v>300</v>
-      </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -3375,8 +3509,8 @@
       <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>300</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -3390,96 +3524,102 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4000</v>
       </c>
       <c r="F59" s="3">
         <v>4000</v>
       </c>
       <c r="G59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="H59" s="3">
         <v>3300</v>
       </c>
       <c r="I59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1700</v>
       </c>
       <c r="R59" s="3">
         <v>1700</v>
       </c>
       <c r="S59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T59" s="3">
         <v>1900</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1800</v>
       </c>
       <c r="U59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3000</v>
       </c>
       <c r="J60" s="3">
         <v>3000</v>
       </c>
       <c r="K60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L60" s="3">
         <v>3300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2600</v>
       </c>
       <c r="M60" s="3">
         <v>2600</v>
@@ -3491,25 +3631,28 @@
         <v>2600</v>
       </c>
       <c r="P60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2100</v>
       </c>
       <c r="U60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3529,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
@@ -3541,7 +3684,7 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>600</v>
@@ -3553,7 +3696,7 @@
         <v>600</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,28 +3725,28 @@
         <v>2200</v>
       </c>
       <c r="F62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>600</v>
       </c>
       <c r="N62" s="3">
         <v>600</v>
@@ -3609,25 +3755,28 @@
         <v>600</v>
       </c>
       <c r="P62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q62" s="3">
         <v>700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
       </c>
       <c r="U62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,40 +3958,43 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3800</v>
       </c>
       <c r="N66" s="3">
         <v>3800</v>
@@ -3845,25 +4003,28 @@
         <v>3800</v>
       </c>
       <c r="P66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E72" s="3">
         <v>5900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>3800</v>
       </c>
       <c r="I72" s="3">
         <v>3800</v>
       </c>
       <c r="J72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E76" s="3">
         <v>28100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,93 +4664,99 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F81" s="3">
         <v>800</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
@@ -4569,37 +4764,40 @@
         <v>200</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
-        <v>300</v>
-      </c>
       <c r="P81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
-        <v>300</v>
-      </c>
       <c r="R81" s="3">
+        <v>300</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
-        <v>300</v>
-      </c>
       <c r="T81" s="3">
+        <v>300</v>
+      </c>
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4633,7 +4832,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4657,13 +4856,13 @@
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4678,10 +4877,13 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
-        <v>300</v>
-      </c>
       <c r="K89" s="3">
+        <v>300</v>
+      </c>
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5068,21 +5289,21 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5108,16 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5252,34 +5482,34 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-300</v>
       </c>
       <c r="R94" s="3">
         <v>-300</v>
@@ -5288,13 +5518,16 @@
         <v>-300</v>
       </c>
       <c r="T94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5349,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-200</v>
@@ -5358,7 +5592,7 @@
         <v>-200</v>
       </c>
       <c r="P96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q96" s="3">
         <v>-100</v>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,58 +5795,61 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5647,11 +5896,11 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>200</v>
-      </c>
       <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>300</v>
-      </c>
       <c r="R102" s="3">
+        <v>300</v>
+      </c>
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
-        <v>300</v>
-      </c>
       <c r="T102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4900</v>
       </c>
       <c r="G8" s="3">
         <v>4900</v>
       </c>
       <c r="H8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="I8" s="3">
         <v>4000</v>
@@ -780,48 +784,51 @@
         <v>4000</v>
       </c>
       <c r="K8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E9" s="3">
         <v>1400</v>
@@ -833,25 +840,25 @@
         <v>1400</v>
       </c>
       <c r="H9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I9" s="3">
         <v>1300</v>
       </c>
       <c r="J9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1300</v>
       </c>
       <c r="L9" s="3">
         <v>1300</v>
       </c>
       <c r="M9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N9" s="3">
         <v>1100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1000</v>
       </c>
       <c r="O9" s="3">
         <v>1000</v>
@@ -860,16 +867,16 @@
         <v>1000</v>
       </c>
       <c r="Q9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
-      </c>
-      <c r="T9" s="3">
-        <v>700</v>
       </c>
       <c r="U9" s="3">
         <v>700</v>
@@ -877,70 +884,76 @@
       <c r="V9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3500</v>
       </c>
       <c r="G10" s="3">
         <v>3500</v>
       </c>
       <c r="H10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="I10" s="3">
         <v>2700</v>
       </c>
       <c r="J10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2900</v>
       </c>
       <c r="L10" s="3">
         <v>2900</v>
       </c>
       <c r="M10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N10" s="3">
         <v>2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2800</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2500</v>
       </c>
       <c r="Q10" s="3">
         <v>2500</v>
       </c>
       <c r="R10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1131,8 +1151,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1211,7 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1209,10 +1232,13 @@
         <v>100</v>
       </c>
       <c r="V15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E17" s="3">
         <v>4300</v>
       </c>
       <c r="F17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4000</v>
       </c>
       <c r="L17" s="3">
         <v>4000</v>
       </c>
       <c r="M17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3200</v>
       </c>
       <c r="P17" s="3">
         <v>3200</v>
       </c>
       <c r="Q17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
-        <v>200</v>
-      </c>
       <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>200</v>
-      </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>200</v>
-      </c>
       <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
       <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
-        <v>300</v>
-      </c>
       <c r="Q18" s="3">
+        <v>300</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="V18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,26 +1432,26 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1434,78 +1468,84 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1400</v>
       </c>
       <c r="G21" s="3">
         <v>1400</v>
       </c>
       <c r="H21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>700</v>
       </c>
       <c r="K21" s="3">
         <v>700</v>
       </c>
       <c r="L21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M21" s="3">
         <v>600</v>
       </c>
       <c r="N21" s="3">
+        <v>600</v>
+      </c>
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,34 +1606,37 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
-        <v>300</v>
-      </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
-        <v>300</v>
-      </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
@@ -1602,96 +1645,102 @@
         <v>200</v>
       </c>
       <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
-        <v>300</v>
-      </c>
       <c r="Q23" s="3">
+        <v>300</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>300</v>
-      </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,32 +1801,35 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>300</v>
-      </c>
       <c r="F26" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G26" s="3">
         <v>800</v>
       </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
-        <v>200</v>
-      </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
@@ -1785,61 +1837,64 @@
         <v>200</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
-        <v>300</v>
-      </c>
       <c r="Q26" s="3">
+        <v>300</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
-        <v>300</v>
-      </c>
       <c r="S26" s="3">
+        <v>300</v>
+      </c>
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
-        <v>300</v>
-      </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
-        <v>300</v>
-      </c>
       <c r="F27" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G27" s="3">
         <v>800</v>
       </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>200</v>
-      </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
@@ -1847,37 +1902,40 @@
         <v>200</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
-        <v>300</v>
-      </c>
       <c r="Q27" s="3">
+        <v>300</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
-        <v>300</v>
-      </c>
       <c r="S27" s="3">
+        <v>300</v>
+      </c>
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
-        <v>300</v>
-      </c>
       <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,11 +2031,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2142,26 +2212,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2178,40 +2248,43 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>300</v>
-      </c>
       <c r="F33" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G33" s="3">
         <v>800</v>
       </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
-        <v>200</v>
-      </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
@@ -2219,37 +2292,40 @@
         <v>200</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
-        <v>300</v>
-      </c>
       <c r="Q33" s="3">
+        <v>300</v>
+      </c>
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
-        <v>300</v>
-      </c>
       <c r="S33" s="3">
+        <v>300</v>
+      </c>
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
-        <v>300</v>
-      </c>
       <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,32 +2386,35 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
-        <v>300</v>
-      </c>
       <c r="F35" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G35" s="3">
         <v>800</v>
       </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
-        <v>200</v>
-      </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
@@ -2343,104 +2422,110 @@
         <v>200</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
-        <v>300</v>
-      </c>
       <c r="Q35" s="3">
+        <v>300</v>
+      </c>
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
-        <v>300</v>
-      </c>
       <c r="S35" s="3">
+        <v>300</v>
+      </c>
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
-        <v>300</v>
-      </c>
       <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E41" s="3">
         <v>20500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>15800</v>
       </c>
       <c r="J41" s="3">
         <v>15800</v>
       </c>
       <c r="K41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="L41" s="3">
         <v>15200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,43 +2701,46 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2100</v>
       </c>
       <c r="J43" s="3">
         <v>2100</v>
       </c>
       <c r="K43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2200</v>
       </c>
       <c r="O43" s="3">
         <v>2200</v>
@@ -2656,13 +2749,13 @@
         <v>2200</v>
       </c>
       <c r="Q43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1300</v>
       </c>
       <c r="T43" s="3">
         <v>1300</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,35 +2843,35 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
@@ -2783,84 +2882,90 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>400</v>
       </c>
       <c r="T45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E46" s="3">
         <v>23900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>6800</v>
       </c>
       <c r="V46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,34 +3026,37 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
-        <v>300</v>
-      </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2957,7 +3065,7 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -2966,11 +3074,11 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
-        <v>200</v>
-      </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
@@ -2983,70 +3091,76 @@
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E49" s="3">
         <v>9600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,28 +3301,28 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3217,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
@@ -3229,10 +3349,13 @@
         <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,31 +3416,34 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E54" s="3">
         <v>36100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>30100</v>
       </c>
       <c r="K54" s="3">
         <v>30100</v>
@@ -3326,37 +3452,40 @@
         <v>30100</v>
       </c>
       <c r="M54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="N54" s="3">
         <v>29000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,19 +3533,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
-        <v>300</v>
-      </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
@@ -3424,60 +3555,63 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
-        <v>300</v>
-      </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -3512,8 +3646,8 @@
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>300</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -3527,102 +3661,108 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4000</v>
       </c>
       <c r="G59" s="3">
         <v>4000</v>
       </c>
       <c r="H59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="I59" s="3">
         <v>3300</v>
       </c>
       <c r="J59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1700</v>
       </c>
       <c r="S59" s="3">
         <v>1700</v>
       </c>
       <c r="T59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U59" s="3">
         <v>1900</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1800</v>
       </c>
       <c r="V59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3000</v>
       </c>
       <c r="K60" s="3">
         <v>3000</v>
       </c>
       <c r="L60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M60" s="3">
         <v>3300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2600</v>
       </c>
       <c r="N60" s="3">
         <v>2600</v>
@@ -3634,25 +3774,28 @@
         <v>2600</v>
       </c>
       <c r="Q60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2100</v>
       </c>
       <c r="V60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3675,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -3687,7 +3830,7 @@
         <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
         <v>600</v>
@@ -3699,7 +3842,7 @@
         <v>600</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3713,13 +3856,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
         <v>2200</v>
@@ -3728,28 +3874,28 @@
         <v>2200</v>
       </c>
       <c r="G62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
@@ -3758,25 +3904,28 @@
         <v>600</v>
       </c>
       <c r="Q62" s="3">
+        <v>600</v>
+      </c>
+      <c r="R62" s="3">
         <v>700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
       </c>
       <c r="V62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,34 +4128,34 @@
         <v>7600</v>
       </c>
       <c r="E66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3800</v>
       </c>
       <c r="O66" s="3">
         <v>3800</v>
@@ -4006,25 +4164,28 @@
         <v>3800</v>
       </c>
       <c r="Q66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E72" s="3">
         <v>6500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3800</v>
       </c>
       <c r="J72" s="3">
         <v>3800</v>
       </c>
       <c r="K72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L72" s="3">
         <v>3600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E76" s="3">
         <v>28500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,99 +4856,105 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
-        <v>300</v>
-      </c>
       <c r="F81" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G81" s="3">
         <v>800</v>
       </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
-        <v>200</v>
-      </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
@@ -4767,37 +4962,40 @@
         <v>200</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
-        <v>300</v>
-      </c>
       <c r="Q81" s="3">
+        <v>300</v>
+      </c>
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
-        <v>300</v>
-      </c>
       <c r="S81" s="3">
+        <v>300</v>
+      </c>
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
-        <v>300</v>
-      </c>
       <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,7 +5034,7 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -4859,13 +5058,13 @@
         <v>400</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -4880,10 +5079,13 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
-        <v>300</v>
-      </c>
       <c r="L89" s="3">
+        <v>300</v>
+      </c>
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5292,21 +5513,21 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5332,16 +5553,19 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5485,34 +5715,34 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-300</v>
       </c>
       <c r="S94" s="3">
         <v>-300</v>
@@ -5521,13 +5751,16 @@
         <v>-300</v>
       </c>
       <c r="U94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5586,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-200</v>
@@ -5595,7 +5829,7 @@
         <v>-200</v>
       </c>
       <c r="Q96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R96" s="3">
         <v>-100</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,61 +6041,64 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5899,11 +6148,11 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
-        <v>200</v>
-      </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
-        <v>300</v>
-      </c>
       <c r="S102" s="3">
+        <v>300</v>
+      </c>
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>300</v>
-      </c>
       <c r="U102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V102" s="3">
+        <v>200</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4900</v>
       </c>
       <c r="H8" s="3">
         <v>4900</v>
       </c>
       <c r="I8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="J8" s="3">
         <v>4000</v>
@@ -787,51 +791,54 @@
         <v>4000</v>
       </c>
       <c r="L8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1400</v>
       </c>
       <c r="F9" s="3">
         <v>1400</v>
@@ -843,25 +850,25 @@
         <v>1400</v>
       </c>
       <c r="I9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J9" s="3">
         <v>1300</v>
       </c>
       <c r="K9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L9" s="3">
         <v>1200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1300</v>
       </c>
       <c r="M9" s="3">
         <v>1300</v>
       </c>
       <c r="N9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O9" s="3">
         <v>1100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1000</v>
       </c>
       <c r="P9" s="3">
         <v>1000</v>
@@ -870,16 +877,16 @@
         <v>1000</v>
       </c>
       <c r="R9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
-      </c>
-      <c r="U9" s="3">
-        <v>700</v>
       </c>
       <c r="V9" s="3">
         <v>700</v>
@@ -887,73 +894,79 @@
       <c r="W9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3500</v>
       </c>
       <c r="H10" s="3">
         <v>3500</v>
       </c>
       <c r="I10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="J10" s="3">
         <v>2700</v>
       </c>
       <c r="K10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L10" s="3">
         <v>2800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2900</v>
       </c>
       <c r="M10" s="3">
         <v>2900</v>
       </c>
       <c r="N10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O10" s="3">
         <v>2500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>2500</v>
       </c>
       <c r="R10" s="3">
         <v>2500</v>
       </c>
       <c r="S10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T10" s="3">
         <v>2100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,11 +1138,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1237,7 @@
         <v>200</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1235,10 +1258,13 @@
         <v>100</v>
       </c>
       <c r="W15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4300</v>
       </c>
       <c r="F17" s="3">
         <v>4300</v>
       </c>
       <c r="G17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4000</v>
       </c>
       <c r="M17" s="3">
         <v>4000</v>
       </c>
       <c r="N17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3200</v>
       </c>
       <c r="Q17" s="3">
         <v>3200</v>
       </c>
       <c r="R17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
-        <v>200</v>
-      </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>200</v>
-      </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>200</v>
-      </c>
       <c r="N18" s="3">
+        <v>200</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>200</v>
-      </c>
       <c r="P18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>300</v>
-      </c>
       <c r="R18" s="3">
+        <v>300</v>
+      </c>
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1435,26 +1469,26 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1471,16 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>1600</v>
       </c>
       <c r="E21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1400</v>
       </c>
       <c r="H21" s="3">
         <v>1400</v>
       </c>
       <c r="I21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>700</v>
       </c>
       <c r="L21" s="3">
         <v>700</v>
       </c>
       <c r="M21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N21" s="3">
         <v>600</v>
       </c>
       <c r="O21" s="3">
+        <v>600</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,37 +1649,40 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
-        <v>300</v>
-      </c>
       <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>300</v>
-      </c>
       <c r="L23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
@@ -1648,34 +1691,37 @@
         <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>300</v>
-      </c>
       <c r="R23" s="3">
+        <v>300</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,64 +1729,67 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,35 +1853,38 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
-        <v>300</v>
-      </c>
       <c r="G26" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H26" s="3">
         <v>800</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
@@ -1840,64 +1892,67 @@
         <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>300</v>
-      </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
-        <v>300</v>
-      </c>
       <c r="T26" s="3">
+        <v>300</v>
+      </c>
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
-        <v>300</v>
-      </c>
       <c r="V26" s="3">
+        <v>300</v>
+      </c>
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>300</v>
-      </c>
       <c r="G27" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H27" s="3">
         <v>800</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
       <c r="L27" s="3">
         <v>200</v>
       </c>
@@ -1905,37 +1960,40 @@
         <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>300</v>
-      </c>
       <c r="R27" s="3">
+        <v>300</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
-        <v>300</v>
-      </c>
       <c r="T27" s="3">
+        <v>300</v>
+      </c>
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
-        <v>300</v>
-      </c>
       <c r="V27" s="3">
+        <v>300</v>
+      </c>
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,11 +2095,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2215,26 +2285,26 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2251,43 +2321,46 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>300</v>
-      </c>
       <c r="G33" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H33" s="3">
         <v>800</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
       <c r="L33" s="3">
         <v>200</v>
       </c>
@@ -2295,37 +2368,40 @@
         <v>200</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>300</v>
-      </c>
       <c r="R33" s="3">
+        <v>300</v>
+      </c>
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
-        <v>300</v>
-      </c>
       <c r="T33" s="3">
+        <v>300</v>
+      </c>
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
-        <v>300</v>
-      </c>
       <c r="V33" s="3">
+        <v>300</v>
+      </c>
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,35 +2465,38 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>300</v>
-      </c>
       <c r="G35" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H35" s="3">
         <v>800</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
       <c r="L35" s="3">
         <v>200</v>
       </c>
@@ -2425,107 +2504,113 @@
         <v>200</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>300</v>
-      </c>
       <c r="R35" s="3">
+        <v>300</v>
+      </c>
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
-        <v>300</v>
-      </c>
       <c r="T35" s="3">
+        <v>300</v>
+      </c>
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
-        <v>300</v>
-      </c>
       <c r="V35" s="3">
+        <v>300</v>
+      </c>
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E41" s="3">
         <v>21200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>15800</v>
       </c>
       <c r="K41" s="3">
         <v>15800</v>
       </c>
       <c r="L41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="M41" s="3">
         <v>15200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,46 +2794,49 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2100</v>
       </c>
       <c r="K43" s="3">
         <v>2100</v>
       </c>
       <c r="L43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2200</v>
       </c>
       <c r="P43" s="3">
         <v>2200</v>
@@ -2752,13 +2845,13 @@
         <v>2200</v>
       </c>
       <c r="R43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1300</v>
       </c>
       <c r="U43" s="3">
         <v>1300</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,47 +2930,50 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
@@ -2885,87 +2984,93 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>400</v>
       </c>
       <c r="U45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E46" s="3">
         <v>25200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>6800</v>
       </c>
       <c r="W46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,37 +3134,40 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
-        <v>300</v>
-      </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3068,7 +3176,7 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3077,11 +3185,11 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
-        <v>200</v>
-      </c>
       <c r="T48" s="3">
         <v>200</v>
       </c>
@@ -3094,73 +3202,79 @@
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E49" s="3">
         <v>9500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3304,28 +3424,28 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3340,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>200</v>
@@ -3352,10 +3472,13 @@
         <v>200</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,34 +3542,37 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E54" s="3">
         <v>37300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>30100</v>
       </c>
       <c r="L54" s="3">
         <v>30100</v>
@@ -3455,37 +3581,40 @@
         <v>30100</v>
       </c>
       <c r="N54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="O54" s="3">
         <v>29000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,22 +3664,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
-        <v>300</v>
-      </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
@@ -3558,49 +3689,52 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
-        <v>300</v>
-      </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3610,11 +3744,11 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -3649,8 +3783,8 @@
       <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>300</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3664,108 +3798,114 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4000</v>
       </c>
       <c r="H59" s="3">
         <v>4000</v>
       </c>
       <c r="I59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="J59" s="3">
         <v>3300</v>
       </c>
       <c r="K59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1700</v>
       </c>
       <c r="T59" s="3">
         <v>1700</v>
       </c>
       <c r="U59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V59" s="3">
         <v>1900</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1800</v>
       </c>
       <c r="W59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3000</v>
       </c>
       <c r="L60" s="3">
         <v>3000</v>
       </c>
       <c r="M60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N60" s="3">
         <v>3300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2600</v>
       </c>
       <c r="O60" s="3">
         <v>2600</v>
@@ -3777,25 +3917,28 @@
         <v>2600</v>
       </c>
       <c r="R60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>2100</v>
       </c>
       <c r="W60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3821,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
@@ -3833,7 +3976,7 @@
         <v>300</v>
       </c>
       <c r="O61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>600</v>
@@ -3845,7 +3988,7 @@
         <v>600</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3859,16 +4002,19 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2200</v>
       </c>
       <c r="F62" s="3">
         <v>2200</v>
@@ -3877,28 +4023,28 @@
         <v>2200</v>
       </c>
       <c r="H62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
+        <v>500</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>600</v>
       </c>
       <c r="P62" s="3">
         <v>600</v>
@@ -3907,25 +4053,28 @@
         <v>600</v>
       </c>
       <c r="R62" s="3">
+        <v>600</v>
+      </c>
+      <c r="S62" s="3">
         <v>700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
       </c>
       <c r="W62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,46 +4274,49 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="E66" s="3">
         <v>7600</v>
       </c>
       <c r="F66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3800</v>
       </c>
       <c r="P66" s="3">
         <v>3800</v>
@@ -4167,25 +4325,28 @@
         <v>3800</v>
       </c>
       <c r="R66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E72" s="3">
         <v>7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3800</v>
       </c>
       <c r="K72" s="3">
         <v>3800</v>
       </c>
       <c r="L72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M72" s="3">
         <v>3600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E76" s="3">
         <v>29700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,105 +5048,111 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>300</v>
-      </c>
       <c r="G81" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H81" s="3">
         <v>800</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
       <c r="L81" s="3">
         <v>200</v>
       </c>
@@ -4965,37 +5160,40 @@
         <v>200</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>300</v>
-      </c>
       <c r="R81" s="3">
+        <v>300</v>
+      </c>
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
-        <v>300</v>
-      </c>
       <c r="T81" s="3">
+        <v>300</v>
+      </c>
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
-        <v>300</v>
-      </c>
       <c r="V81" s="3">
+        <v>300</v>
+      </c>
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,7 +5236,7 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -5061,13 +5260,13 @@
         <v>400</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5082,10 +5281,13 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
-        <v>300</v>
-      </c>
       <c r="M89" s="3">
+        <v>300</v>
+      </c>
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5516,21 +5737,21 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5556,16 +5777,19 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,17 +5921,20 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5718,34 +5948,34 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-300</v>
       </c>
       <c r="T94" s="3">
         <v>-300</v>
@@ -5754,13 +5984,16 @@
         <v>-300</v>
       </c>
       <c r="V94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5823,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-200</v>
@@ -5832,7 +6066,7 @@
         <v>-200</v>
       </c>
       <c r="R96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S96" s="3">
         <v>-100</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,64 +6287,67 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>13200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6151,11 +6400,11 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
-        <v>200</v>
-      </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
-        <v>300</v>
-      </c>
       <c r="T102" s="3">
+        <v>300</v>
+      </c>
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
-        <v>300</v>
-      </c>
       <c r="V102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W102" s="3">
+        <v>200</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,130 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4900</v>
       </c>
       <c r="I8" s="3">
         <v>4900</v>
       </c>
       <c r="J8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="K8" s="3">
         <v>4000</v>
@@ -794,54 +797,57 @@
         <v>4000</v>
       </c>
       <c r="M8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1400</v>
       </c>
       <c r="G9" s="3">
         <v>1400</v>
@@ -853,25 +859,25 @@
         <v>1400</v>
       </c>
       <c r="J9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K9" s="3">
         <v>1300</v>
       </c>
       <c r="L9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="3">
         <v>1200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1300</v>
       </c>
       <c r="N9" s="3">
         <v>1300</v>
       </c>
       <c r="O9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P9" s="3">
         <v>1100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1000</v>
       </c>
       <c r="Q9" s="3">
         <v>1000</v>
@@ -880,16 +886,16 @@
         <v>1000</v>
       </c>
       <c r="S9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
-      </c>
-      <c r="V9" s="3">
-        <v>700</v>
       </c>
       <c r="W9" s="3">
         <v>700</v>
@@ -897,76 +903,82 @@
       <c r="X9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
         <v>4100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3500</v>
       </c>
       <c r="I10" s="3">
         <v>3500</v>
       </c>
       <c r="J10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K10" s="3">
         <v>2700</v>
       </c>
       <c r="L10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M10" s="3">
         <v>2800</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2900</v>
       </c>
       <c r="N10" s="3">
         <v>2900</v>
       </c>
       <c r="O10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P10" s="3">
         <v>2500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2800</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2500</v>
       </c>
       <c r="S10" s="3">
         <v>2500</v>
       </c>
       <c r="T10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U10" s="3">
         <v>2100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1141,11 +1160,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1189,19 +1208,22 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1240,7 +1262,7 @@
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1261,10 +1283,13 @@
         <v>100</v>
       </c>
       <c r="X15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1311,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4300</v>
       </c>
       <c r="G17" s="3">
         <v>4300</v>
       </c>
       <c r="H17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4000</v>
       </c>
       <c r="N17" s="3">
         <v>4000</v>
       </c>
       <c r="O17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>3200</v>
       </c>
       <c r="R17" s="3">
         <v>3200</v>
       </c>
       <c r="S17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>1000</v>
       </c>
       <c r="E18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
-        <v>200</v>
-      </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>200</v>
-      </c>
       <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
       <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>200</v>
-      </c>
       <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
-        <v>300</v>
-      </c>
       <c r="S18" s="3">
+        <v>300</v>
+      </c>
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>500</v>
       </c>
-      <c r="X18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,16 +1480,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1472,26 +1505,26 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>200</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1508,84 +1541,90 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="3">
         <v>1600</v>
       </c>
       <c r="F21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1400</v>
       </c>
       <c r="I21" s="3">
         <v>1400</v>
       </c>
       <c r="J21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>700</v>
       </c>
       <c r="M21" s="3">
         <v>700</v>
       </c>
       <c r="N21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O21" s="3">
         <v>600</v>
       </c>
       <c r="P21" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,40 +1691,43 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
-        <v>300</v>
-      </c>
       <c r="K23" s="3">
+        <v>300</v>
+      </c>
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
-        <v>300</v>
-      </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N23" s="3">
         <v>200</v>
@@ -1694,102 +1736,108 @@
         <v>200</v>
       </c>
       <c r="P23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
-        <v>300</v>
-      </c>
       <c r="S23" s="3">
+        <v>300</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>300</v>
-      </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,38 +1904,41 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
       <c r="H26" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I26" s="3">
         <v>800</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
@@ -1895,67 +1946,70 @@
         <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
-        <v>300</v>
-      </c>
       <c r="S26" s="3">
+        <v>300</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
-        <v>300</v>
-      </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
-        <v>300</v>
-      </c>
       <c r="W26" s="3">
+        <v>300</v>
+      </c>
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
       <c r="H27" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I27" s="3">
         <v>800</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
@@ -1963,37 +2017,40 @@
         <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
-        <v>300</v>
-      </c>
       <c r="S27" s="3">
+        <v>300</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
-        <v>300</v>
-      </c>
       <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
-        <v>300</v>
-      </c>
       <c r="W27" s="3">
+        <v>300</v>
+      </c>
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,11 +2158,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>400</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,17 +2330,20 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2288,26 +2357,26 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2324,46 +2393,49 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
       <c r="H33" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I33" s="3">
         <v>800</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>200</v>
-      </c>
       <c r="M33" s="3">
         <v>200</v>
       </c>
@@ -2371,37 +2443,40 @@
         <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
-        <v>300</v>
-      </c>
       <c r="S33" s="3">
+        <v>300</v>
+      </c>
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
-        <v>300</v>
-      </c>
       <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
-        <v>300</v>
-      </c>
       <c r="W33" s="3">
+        <v>300</v>
+      </c>
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,38 +2543,41 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
       <c r="H35" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I35" s="3">
         <v>800</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>200</v>
-      </c>
       <c r="M35" s="3">
         <v>200</v>
       </c>
@@ -2507,110 +2585,116 @@
         <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
-        <v>300</v>
-      </c>
       <c r="S35" s="3">
+        <v>300</v>
+      </c>
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
-        <v>300</v>
-      </c>
       <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
-        <v>300</v>
-      </c>
       <c r="W35" s="3">
+        <v>300</v>
+      </c>
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E41" s="3">
         <v>22400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>15800</v>
       </c>
       <c r="L41" s="3">
         <v>15800</v>
       </c>
       <c r="M41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="N41" s="3">
         <v>15200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,49 +2886,52 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2100</v>
       </c>
       <c r="L43" s="3">
         <v>2100</v>
       </c>
       <c r="M43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2200</v>
       </c>
       <c r="Q43" s="3">
         <v>2200</v>
@@ -2848,13 +2940,13 @@
         <v>2200</v>
       </c>
       <c r="S43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T43" s="3">
         <v>1600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1300</v>
       </c>
       <c r="V43" s="3">
         <v>1300</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,41 +3040,41 @@
         <v>800</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
@@ -2987,90 +3085,96 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>400</v>
       </c>
       <c r="V45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E46" s="3">
         <v>26200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>6800</v>
       </c>
       <c r="X46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,40 +3241,43 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
-        <v>300</v>
-      </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -3179,7 +3286,7 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -3188,11 +3295,11 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3">
-        <v>200</v>
-      </c>
       <c r="U48" s="3">
         <v>200</v>
       </c>
@@ -3205,76 +3312,82 @@
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3427,28 +3546,28 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3463,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>200</v>
@@ -3475,10 +3594,13 @@
         <v>200</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,37 +3667,40 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E54" s="3">
         <v>38000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>30100</v>
       </c>
       <c r="M54" s="3">
         <v>30100</v>
@@ -3584,37 +3709,40 @@
         <v>30100</v>
       </c>
       <c r="O54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="P54" s="3">
         <v>29000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,16 +3804,16 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
-        <v>300</v>
-      </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -3692,49 +3822,52 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
-        <v>300</v>
-      </c>
       <c r="W57" s="3">
         <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3747,11 +3880,11 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3786,8 +3919,8 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>300</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -3801,114 +3934,120 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4000</v>
       </c>
       <c r="I59" s="3">
         <v>4000</v>
       </c>
       <c r="J59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="K59" s="3">
         <v>3300</v>
       </c>
       <c r="L59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1700</v>
       </c>
       <c r="U59" s="3">
         <v>1700</v>
       </c>
       <c r="V59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W59" s="3">
         <v>1900</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1800</v>
       </c>
       <c r="X59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3000</v>
       </c>
       <c r="M60" s="3">
         <v>3000</v>
       </c>
       <c r="N60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O60" s="3">
         <v>3300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2600</v>
       </c>
       <c r="P60" s="3">
         <v>2600</v>
@@ -3920,25 +4059,28 @@
         <v>2600</v>
       </c>
       <c r="S60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2100</v>
       </c>
       <c r="X60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3967,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
@@ -3979,7 +4121,7 @@
         <v>300</v>
       </c>
       <c r="P61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q61" s="3">
         <v>600</v>
@@ -3991,7 +4133,7 @@
         <v>600</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4005,19 +4147,22 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2200</v>
       </c>
       <c r="G62" s="3">
         <v>2200</v>
@@ -4026,28 +4171,28 @@
         <v>2200</v>
       </c>
       <c r="I62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
       </c>
       <c r="O62" s="3">
+        <v>500</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>600</v>
       </c>
       <c r="Q62" s="3">
         <v>600</v>
@@ -4056,25 +4201,28 @@
         <v>600</v>
       </c>
       <c r="S62" s="3">
+        <v>600</v>
+      </c>
+      <c r="T62" s="3">
         <v>700</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
       </c>
       <c r="X62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,49 +4431,52 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7600</v>
       </c>
       <c r="F66" s="3">
         <v>7600</v>
       </c>
       <c r="G66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3800</v>
       </c>
       <c r="Q66" s="3">
         <v>3800</v>
@@ -4328,25 +4485,28 @@
         <v>3800</v>
       </c>
       <c r="S66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E72" s="3">
         <v>8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>3800</v>
       </c>
       <c r="L72" s="3">
         <v>3800</v>
       </c>
       <c r="M72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N72" s="3">
         <v>3600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E76" s="3">
         <v>30900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,111 +5239,117 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
       <c r="H81" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I81" s="3">
         <v>800</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
       <c r="M81" s="3">
         <v>200</v>
       </c>
@@ -5163,37 +5357,40 @@
         <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
-        <v>300</v>
-      </c>
       <c r="S81" s="3">
+        <v>300</v>
+      </c>
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
-        <v>300</v>
-      </c>
       <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
-        <v>300</v>
-      </c>
       <c r="W81" s="3">
+        <v>300</v>
+      </c>
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5239,7 +5437,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -5263,13 +5461,13 @@
         <v>400</v>
       </c>
       <c r="Q83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5284,10 +5482,13 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
-        <v>300</v>
-      </c>
       <c r="N89" s="3">
+        <v>300</v>
+      </c>
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5740,21 +5960,21 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5780,16 +6000,19 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,20 +6150,23 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5951,34 +6180,34 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-300</v>
       </c>
       <c r="U94" s="3">
         <v>-300</v>
@@ -5987,13 +6216,16 @@
         <v>-300</v>
       </c>
       <c r="W94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6060,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-200</v>
@@ -6069,7 +6302,7 @@
         <v>-200</v>
       </c>
       <c r="S96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T96" s="3">
         <v>-100</v>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,67 +6532,70 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>13200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6403,11 +6651,11 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
       <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
-        <v>300</v>
-      </c>
       <c r="U102" s="3">
+        <v>300</v>
+      </c>
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
-        <v>300</v>
-      </c>
       <c r="W102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,137 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>5700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4900</v>
       </c>
       <c r="J8" s="3">
         <v>4900</v>
       </c>
       <c r="K8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="L8" s="3">
         <v>4000</v>
@@ -800,57 +804,60 @@
         <v>4000</v>
       </c>
       <c r="N8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1400</v>
       </c>
       <c r="H9" s="3">
         <v>1400</v>
@@ -862,25 +869,25 @@
         <v>1400</v>
       </c>
       <c r="K9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L9" s="3">
         <v>1300</v>
       </c>
       <c r="M9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N9" s="3">
         <v>1200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1300</v>
       </c>
       <c r="O9" s="3">
         <v>1300</v>
       </c>
       <c r="P9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1000</v>
       </c>
       <c r="R9" s="3">
         <v>1000</v>
@@ -889,16 +896,16 @@
         <v>1000</v>
       </c>
       <c r="T9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>900</v>
-      </c>
-      <c r="W9" s="3">
-        <v>700</v>
       </c>
       <c r="X9" s="3">
         <v>700</v>
@@ -906,79 +913,85 @@
       <c r="Y9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3500</v>
       </c>
       <c r="J10" s="3">
         <v>3500</v>
       </c>
       <c r="K10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L10" s="3">
         <v>2700</v>
       </c>
       <c r="M10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N10" s="3">
         <v>2800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2900</v>
       </c>
       <c r="O10" s="3">
         <v>2900</v>
       </c>
       <c r="P10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2800</v>
-      </c>
-      <c r="S10" s="3">
-        <v>2500</v>
       </c>
       <c r="T10" s="3">
         <v>2500</v>
       </c>
       <c r="U10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V10" s="3">
         <v>2100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,29 +1163,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1184,8 +1204,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1199,8 +1219,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1211,14 +1231,17 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1226,7 +1249,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1265,7 +1288,7 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1286,10 +1309,13 @@
         <v>100</v>
       </c>
       <c r="Y15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4300</v>
       </c>
       <c r="H17" s="3">
         <v>4300</v>
       </c>
       <c r="I17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>4000</v>
       </c>
       <c r="O17" s="3">
         <v>4000</v>
       </c>
       <c r="P17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>3200</v>
       </c>
       <c r="S17" s="3">
         <v>3200</v>
       </c>
       <c r="T17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1000</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>1000</v>
       </c>
       <c r="F18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
-        <v>200</v>
-      </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>200</v>
-      </c>
       <c r="N18" s="3">
+        <v>200</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>200</v>
-      </c>
       <c r="P18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>200</v>
-      </c>
       <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
-        <v>300</v>
-      </c>
       <c r="T18" s="3">
+        <v>300</v>
+      </c>
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>500</v>
       </c>
-      <c r="Y18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,19 +1514,20 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>300</v>
-      </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1508,26 +1542,26 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>200</v>
-      </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1544,87 +1578,93 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1600</v>
       </c>
       <c r="F21" s="3">
         <v>1600</v>
       </c>
       <c r="G21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1400</v>
       </c>
       <c r="J21" s="3">
         <v>1400</v>
       </c>
       <c r="K21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>700</v>
       </c>
       <c r="N21" s="3">
         <v>700</v>
       </c>
       <c r="O21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P21" s="3">
         <v>600</v>
       </c>
       <c r="Q21" s="3">
+        <v>600</v>
+      </c>
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,34 +1746,34 @@
         <v>700</v>
       </c>
       <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
-        <v>300</v>
-      </c>
       <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>200</v>
@@ -1739,105 +1782,111 @@
         <v>200</v>
       </c>
       <c r="Q23" s="3">
+        <v>200</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
-        <v>300</v>
-      </c>
       <c r="T23" s="3">
+        <v>300</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>300</v>
-      </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>300</v>
-      </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,41 +1956,44 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>300</v>
-      </c>
       <c r="I26" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>800</v>
       </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
@@ -1949,70 +2001,73 @@
         <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
-        <v>300</v>
-      </c>
       <c r="T26" s="3">
+        <v>300</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
-        <v>300</v>
-      </c>
       <c r="V26" s="3">
+        <v>300</v>
+      </c>
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
-        <v>300</v>
-      </c>
       <c r="X26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>300</v>
-      </c>
       <c r="I27" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>800</v>
       </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
@@ -2020,37 +2075,40 @@
         <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
-        <v>300</v>
-      </c>
       <c r="T27" s="3">
+        <v>300</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
-        <v>300</v>
-      </c>
       <c r="V27" s="3">
+        <v>300</v>
+      </c>
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
-        <v>300</v>
-      </c>
       <c r="X27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,31 +2178,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2161,24 +2222,24 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>400</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,20 +2400,23 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>300</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2360,26 +2430,26 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2396,49 +2466,52 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>300</v>
-      </c>
       <c r="I33" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J33" s="3">
         <v>800</v>
       </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
       <c r="N33" s="3">
         <v>200</v>
       </c>
@@ -2446,37 +2519,40 @@
         <v>200</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
-        <v>300</v>
-      </c>
       <c r="T33" s="3">
+        <v>300</v>
+      </c>
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
-        <v>300</v>
-      </c>
       <c r="V33" s="3">
+        <v>300</v>
+      </c>
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
-        <v>300</v>
-      </c>
       <c r="X33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,41 +2622,44 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>300</v>
-      </c>
       <c r="I35" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J35" s="3">
         <v>800</v>
       </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
       <c r="N35" s="3">
         <v>200</v>
       </c>
@@ -2588,113 +2667,119 @@
         <v>200</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
-        <v>300</v>
-      </c>
       <c r="T35" s="3">
+        <v>300</v>
+      </c>
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
-        <v>300</v>
-      </c>
       <c r="V35" s="3">
+        <v>300</v>
+      </c>
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
-        <v>300</v>
-      </c>
       <c r="X35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E41" s="3">
         <v>23900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>15800</v>
       </c>
       <c r="M41" s="3">
         <v>15800</v>
       </c>
       <c r="N41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="O41" s="3">
         <v>15200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,52 +2979,55 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2100</v>
       </c>
       <c r="M43" s="3">
         <v>2100</v>
       </c>
       <c r="N43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2200</v>
       </c>
       <c r="R43" s="3">
         <v>2200</v>
@@ -2943,13 +3036,13 @@
         <v>2200</v>
       </c>
       <c r="T43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U43" s="3">
         <v>1600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1300</v>
       </c>
       <c r="W43" s="3">
         <v>1300</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,53 +3127,56 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>800</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
@@ -3088,93 +3187,99 @@
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>400</v>
       </c>
       <c r="W45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E46" s="3">
         <v>27900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>21800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7200</v>
-      </c>
-      <c r="X46" s="3">
-        <v>6800</v>
       </c>
       <c r="Y46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3253,34 +3361,34 @@
         <v>2200</v>
       </c>
       <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="M48" s="3">
-        <v>300</v>
-      </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3289,7 +3397,7 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -3298,11 +3406,11 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3">
-        <v>200</v>
-      </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
@@ -3315,79 +3423,85 @@
       <c r="Y48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E49" s="3">
         <v>9000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3549,28 +3669,28 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3585,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>200</v>
@@ -3597,10 +3717,13 @@
         <v>200</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,40 +3793,43 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E54" s="3">
         <v>39300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>30100</v>
       </c>
       <c r="N54" s="3">
         <v>30100</v>
@@ -3712,37 +3838,40 @@
         <v>30100</v>
       </c>
       <c r="P54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>29000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,28 +3925,29 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -3825,49 +3956,52 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
-        <v>300</v>
-      </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3883,11 +4017,11 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -3922,8 +4056,8 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="U58" s="3">
+        <v>300</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
@@ -3937,120 +4071,126 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4000</v>
       </c>
       <c r="J59" s="3">
         <v>4000</v>
       </c>
       <c r="K59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="L59" s="3">
         <v>3300</v>
       </c>
       <c r="M59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1700</v>
       </c>
       <c r="V59" s="3">
         <v>1700</v>
       </c>
       <c r="W59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X59" s="3">
         <v>1900</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1800</v>
       </c>
       <c r="Y59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3000</v>
       </c>
       <c r="N60" s="3">
         <v>3000</v>
       </c>
       <c r="O60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P60" s="3">
         <v>3300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2600</v>
       </c>
       <c r="Q60" s="3">
         <v>2600</v>
@@ -4062,25 +4202,28 @@
         <v>2600</v>
       </c>
       <c r="T60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>2100</v>
       </c>
       <c r="Y60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4112,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -4124,7 +4267,7 @@
         <v>300</v>
       </c>
       <c r="Q61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R61" s="3">
         <v>600</v>
@@ -4136,7 +4279,7 @@
         <v>600</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4150,22 +4293,25 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2200</v>
       </c>
       <c r="H62" s="3">
         <v>2200</v>
@@ -4174,28 +4320,28 @@
         <v>2200</v>
       </c>
       <c r="J62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
       </c>
       <c r="P62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>600</v>
       </c>
       <c r="R62" s="3">
         <v>600</v>
@@ -4204,25 +4350,28 @@
         <v>600</v>
       </c>
       <c r="T62" s="3">
+        <v>600</v>
+      </c>
+      <c r="U62" s="3">
         <v>700</v>
-      </c>
-      <c r="U62" s="3">
-        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>200</v>
       </c>
       <c r="Y62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,52 +4589,55 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>7600</v>
       </c>
       <c r="G66" s="3">
         <v>7600</v>
       </c>
       <c r="H66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3800</v>
       </c>
       <c r="R66" s="3">
         <v>3800</v>
@@ -4488,25 +4646,28 @@
         <v>3800</v>
       </c>
       <c r="T66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E72" s="3">
         <v>9200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>3800</v>
       </c>
       <c r="M72" s="3">
         <v>3800</v>
       </c>
       <c r="N72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O72" s="3">
         <v>3600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E76" s="3">
         <v>31600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,117 +5431,123 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>300</v>
-      </c>
       <c r="I81" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J81" s="3">
         <v>800</v>
       </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
       <c r="N81" s="3">
         <v>200</v>
       </c>
@@ -5360,37 +5555,40 @@
         <v>200</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
-        <v>300</v>
-      </c>
       <c r="T81" s="3">
+        <v>300</v>
+      </c>
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
-        <v>300</v>
-      </c>
       <c r="V81" s="3">
+        <v>300</v>
+      </c>
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
-        <v>300</v>
-      </c>
       <c r="X81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,13 +5614,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -5440,7 +5639,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -5464,13 +5663,13 @@
         <v>400</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5485,10 +5684,13 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
-        <v>300</v>
-      </c>
       <c r="O89" s="3">
+        <v>300</v>
+      </c>
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5963,21 +6184,21 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6003,16 +6224,19 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,14 +6392,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6183,34 +6413,34 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2800</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-300</v>
       </c>
       <c r="V94" s="3">
         <v>-300</v>
@@ -6219,13 +6449,16 @@
         <v>-300</v>
       </c>
       <c r="X94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6296,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-200</v>
@@ -6305,7 +6539,7 @@
         <v>-200</v>
       </c>
       <c r="T96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U96" s="3">
         <v>-100</v>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,70 +6778,73 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>13200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6654,11 +6903,11 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
-        <v>200</v>
-      </c>
       <c r="O102" s="3">
+        <v>200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
-        <v>300</v>
-      </c>
       <c r="V102" s="3">
+        <v>300</v>
+      </c>
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
-        <v>300</v>
-      </c>
       <c r="X102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4900</v>
       </c>
       <c r="K8" s="3">
         <v>4900</v>
       </c>
       <c r="L8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="M8" s="3">
         <v>4000</v>
@@ -807,60 +811,63 @@
         <v>4000</v>
       </c>
       <c r="O8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P8" s="3">
         <v>4100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1400</v>
       </c>
       <c r="I9" s="3">
         <v>1400</v>
@@ -872,25 +879,25 @@
         <v>1400</v>
       </c>
       <c r="L9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M9" s="3">
         <v>1300</v>
       </c>
       <c r="N9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O9" s="3">
         <v>1200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1300</v>
       </c>
       <c r="P9" s="3">
         <v>1300</v>
       </c>
       <c r="Q9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R9" s="3">
         <v>1100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1000</v>
       </c>
       <c r="S9" s="3">
         <v>1000</v>
@@ -899,16 +906,16 @@
         <v>1000</v>
       </c>
       <c r="U9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V9" s="3">
         <v>900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>900</v>
-      </c>
-      <c r="X9" s="3">
-        <v>700</v>
       </c>
       <c r="Y9" s="3">
         <v>700</v>
@@ -916,82 +923,88 @@
       <c r="Z9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E10" s="3">
         <v>4100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3500</v>
       </c>
       <c r="K10" s="3">
         <v>3500</v>
       </c>
       <c r="L10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M10" s="3">
         <v>2700</v>
       </c>
       <c r="N10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O10" s="3">
         <v>2800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2900</v>
       </c>
       <c r="P10" s="3">
         <v>2900</v>
       </c>
       <c r="Q10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R10" s="3">
         <v>2500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2800</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2500</v>
       </c>
       <c r="U10" s="3">
         <v>2500</v>
       </c>
       <c r="V10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W10" s="3">
         <v>2100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1186,11 +1206,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1207,8 +1227,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1222,8 +1242,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1234,14 +1254,17 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1275,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1291,7 +1314,7 @@
         <v>200</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
@@ -1312,10 +1335,13 @@
         <v>100</v>
       </c>
       <c r="Z15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>4700</v>
       </c>
       <c r="E17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4300</v>
       </c>
       <c r="I17" s="3">
         <v>4300</v>
       </c>
       <c r="J17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4000</v>
       </c>
       <c r="P17" s="3">
         <v>4000</v>
       </c>
       <c r="Q17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3200</v>
       </c>
       <c r="T17" s="3">
         <v>3200</v>
       </c>
       <c r="U17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>1100</v>
       </c>
       <c r="E18" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F18" s="3">
         <v>1000</v>
       </c>
       <c r="G18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
-        <v>200</v>
-      </c>
       <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
       <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>200</v>
-      </c>
       <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
-        <v>200</v>
-      </c>
       <c r="S18" s="3">
+        <v>200</v>
+      </c>
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="T18" s="3">
-        <v>300</v>
-      </c>
       <c r="U18" s="3">
+        <v>300</v>
+      </c>
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>500</v>
       </c>
-      <c r="Z18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,22 +1548,23 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1545,26 +1579,26 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>200</v>
-      </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1581,90 +1615,96 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1300</v>
       </c>
       <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1600</v>
       </c>
       <c r="G21" s="3">
         <v>1600</v>
       </c>
       <c r="H21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1400</v>
       </c>
       <c r="K21" s="3">
         <v>1400</v>
       </c>
       <c r="L21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>700</v>
       </c>
       <c r="O21" s="3">
         <v>700</v>
       </c>
       <c r="P21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q21" s="3">
         <v>600</v>
       </c>
       <c r="R21" s="3">
+        <v>600</v>
+      </c>
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,46 +1777,49 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="3">
         <v>700</v>
       </c>
       <c r="F23" s="3">
+        <v>700</v>
+      </c>
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
-        <v>300</v>
-      </c>
       <c r="M23" s="3">
+        <v>300</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>300</v>
-      </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>200</v>
@@ -1785,108 +1828,114 @@
         <v>200</v>
       </c>
       <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
-        <v>300</v>
-      </c>
       <c r="U23" s="3">
+        <v>300</v>
+      </c>
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>500</v>
       </c>
-      <c r="Z23" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>300</v>
-      </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>300</v>
-      </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>200</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,44 +2008,47 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
-        <v>300</v>
-      </c>
       <c r="J26" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>800</v>
       </c>
       <c r="L26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
@@ -2004,73 +2056,76 @@
         <v>200</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
-        <v>300</v>
-      </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
-        <v>300</v>
-      </c>
       <c r="W26" s="3">
+        <v>300</v>
+      </c>
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
-        <v>300</v>
-      </c>
       <c r="Y26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Z26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
-        <v>300</v>
-      </c>
       <c r="J27" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K27" s="3">
         <v>800</v>
       </c>
       <c r="L27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>200</v>
-      </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
@@ -2078,37 +2133,40 @@
         <v>200</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
-        <v>300</v>
-      </c>
       <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
-        <v>300</v>
-      </c>
       <c r="W27" s="3">
+        <v>300</v>
+      </c>
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
-        <v>300</v>
-      </c>
       <c r="Y27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Z27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +2268,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2225,11 +2286,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2237,11 +2298,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>400</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,23 +2470,26 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2433,26 +2503,26 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2469,52 +2539,55 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>800</v>
       </c>
       <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
-        <v>300</v>
-      </c>
       <c r="J33" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K33" s="3">
         <v>800</v>
       </c>
       <c r="L33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>200</v>
-      </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
@@ -2522,37 +2595,40 @@
         <v>200</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
-        <v>300</v>
-      </c>
       <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
-        <v>300</v>
-      </c>
       <c r="W33" s="3">
+        <v>300</v>
+      </c>
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
-        <v>300</v>
-      </c>
       <c r="Y33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,44 +2701,47 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>800</v>
       </c>
       <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
-        <v>300</v>
-      </c>
       <c r="J35" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K35" s="3">
         <v>800</v>
       </c>
       <c r="L35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>200</v>
-      </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
@@ -2670,116 +2749,122 @@
         <v>200</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
-        <v>300</v>
-      </c>
       <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
-        <v>300</v>
-      </c>
       <c r="W35" s="3">
+        <v>300</v>
+      </c>
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
-        <v>300</v>
-      </c>
       <c r="Y35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E41" s="3">
         <v>24300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>15800</v>
       </c>
       <c r="N41" s="3">
         <v>15800</v>
       </c>
       <c r="O41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="P41" s="3">
         <v>15200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,55 +3072,58 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2100</v>
       </c>
       <c r="N43" s="3">
         <v>2100</v>
       </c>
       <c r="O43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2200</v>
       </c>
       <c r="S43" s="3">
         <v>2200</v>
@@ -3039,13 +3132,13 @@
         <v>2200</v>
       </c>
       <c r="U43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V43" s="3">
         <v>1600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>1300</v>
       </c>
       <c r="X43" s="3">
         <v>1300</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,56 +3226,59 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
       </c>
       <c r="G45" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>200</v>
-      </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
@@ -3190,96 +3289,102 @@
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>400</v>
       </c>
       <c r="X45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E46" s="3">
         <v>29100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>25200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>21800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7200</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>6800</v>
       </c>
       <c r="Z46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,46 +3457,49 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E48" s="3">
         <v>2200</v>
       </c>
       <c r="F48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
-        <v>300</v>
-      </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3400,7 +3508,7 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3409,11 +3517,11 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3">
-        <v>200</v>
-      </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
@@ -3426,82 +3534,88 @@
       <c r="Z48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E49" s="3">
         <v>8900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3672,28 +3792,28 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3708,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
         <v>200</v>
@@ -3720,10 +3840,13 @@
         <v>200</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,43 +3919,46 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E54" s="3">
         <v>40200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>30100</v>
       </c>
       <c r="O54" s="3">
         <v>30100</v>
@@ -3841,37 +3967,40 @@
         <v>30100</v>
       </c>
       <c r="Q54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="R54" s="3">
         <v>29000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,31 +4056,32 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -3959,49 +4090,52 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
-        <v>300</v>
-      </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4020,11 +4154,11 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -4059,8 +4193,8 @@
       <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>300</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4083,117 +4220,120 @@
         <v>5500</v>
       </c>
       <c r="E59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4000</v>
       </c>
       <c r="K59" s="3">
         <v>4000</v>
       </c>
       <c r="L59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M59" s="3">
         <v>3300</v>
       </c>
       <c r="N59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1700</v>
       </c>
       <c r="W59" s="3">
         <v>1700</v>
       </c>
       <c r="X59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1900</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1800</v>
       </c>
       <c r="Z59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3000</v>
       </c>
       <c r="O60" s="3">
         <v>3000</v>
       </c>
       <c r="P60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2600</v>
       </c>
       <c r="R60" s="3">
         <v>2600</v>
@@ -4205,25 +4345,28 @@
         <v>2600</v>
       </c>
       <c r="U60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>2100</v>
       </c>
       <c r="Z60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4258,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>300</v>
@@ -4270,7 +4413,7 @@
         <v>300</v>
       </c>
       <c r="R61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S61" s="3">
         <v>600</v>
@@ -4282,7 +4425,7 @@
         <v>600</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4296,25 +4439,28 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2200</v>
       </c>
       <c r="I62" s="3">
         <v>2200</v>
@@ -4323,28 +4469,28 @@
         <v>2200</v>
       </c>
       <c r="K62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
       </c>
       <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>600</v>
       </c>
       <c r="S62" s="3">
         <v>600</v>
@@ -4353,25 +4499,28 @@
         <v>600</v>
       </c>
       <c r="U62" s="3">
+        <v>600</v>
+      </c>
+      <c r="V62" s="3">
         <v>700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="3">
         <v>200</v>
       </c>
       <c r="Z62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,55 +4747,58 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>7600</v>
       </c>
       <c r="H66" s="3">
         <v>7600</v>
       </c>
       <c r="I66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3800</v>
       </c>
       <c r="S66" s="3">
         <v>3800</v>
@@ -4649,25 +4807,28 @@
         <v>3800</v>
       </c>
       <c r="U66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E72" s="3">
         <v>9800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3800</v>
       </c>
       <c r="N72" s="3">
         <v>3800</v>
       </c>
       <c r="O72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P72" s="3">
         <v>3600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E76" s="3">
         <v>32200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,123 +5623,129 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>800</v>
       </c>
       <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
-        <v>300</v>
-      </c>
       <c r="J81" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K81" s="3">
         <v>800</v>
       </c>
       <c r="L81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>200</v>
-      </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
@@ -5558,37 +5753,40 @@
         <v>200</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
-        <v>300</v>
-      </c>
       <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
-        <v>300</v>
-      </c>
       <c r="W81" s="3">
+        <v>300</v>
+      </c>
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
-        <v>300</v>
-      </c>
       <c r="Y81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5624,7 +5823,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -5642,7 +5841,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
@@ -5666,13 +5865,13 @@
         <v>400</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -5687,10 +5886,13 @@
         <v>200</v>
       </c>
       <c r="Z83" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
-        <v>300</v>
-      </c>
       <c r="P89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6187,21 +6408,21 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6227,16 +6448,19 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6395,14 +6625,14 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6416,34 +6646,34 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-300</v>
       </c>
       <c r="W94" s="3">
         <v>-300</v>
@@ -6452,13 +6682,16 @@
         <v>-300</v>
       </c>
       <c r="Y94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6533,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-200</v>
@@ -6542,7 +6776,7 @@
         <v>-200</v>
       </c>
       <c r="U96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V96" s="3">
         <v>-100</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,73 +7024,76 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>13200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>-100</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6906,11 +7155,11 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-2800</v>
       </c>
       <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
       <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
-        <v>300</v>
-      </c>
       <c r="W102" s="3">
+        <v>300</v>
+      </c>
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
-        <v>300</v>
-      </c>
       <c r="Y102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,184 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5800</v>
+        <v>7100</v>
       </c>
       <c r="E8" s="3">
         <v>5300</v>
       </c>
       <c r="F8" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G8" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="H8" s="3">
         <v>5700</v>
       </c>
       <c r="I8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4000</v>
       </c>
       <c r="O8" s="3">
         <v>4000</v>
       </c>
       <c r="P8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R8" s="3">
         <v>4100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3500</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>2900</v>
       </c>
       <c r="X8" s="3">
         <v>3400</v>
@@ -844,27 +851,33 @@
         <v>2900</v>
       </c>
       <c r="Z8" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="AA8" s="3">
         <v>2900</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="3">
         <v>1200</v>
       </c>
       <c r="F9" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H9" s="3">
         <v>1500</v>
@@ -873,7 +886,7 @@
         <v>1400</v>
       </c>
       <c r="J9" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K9" s="3">
         <v>1400</v>
@@ -882,63 +895,69 @@
         <v>1400</v>
       </c>
       <c r="M9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O9" s="3">
         <v>1300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1200</v>
       </c>
       <c r="P9" s="3">
         <v>1300</v>
       </c>
       <c r="Q9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T9" s="3">
         <v>1100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1000</v>
       </c>
       <c r="U9" s="3">
         <v>1000</v>
       </c>
       <c r="V9" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="W9" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="X9" s="3">
         <v>900</v>
       </c>
       <c r="Y9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Z9" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AA9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="E10" s="3">
         <v>4100</v>
       </c>
       <c r="F10" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G10" s="3">
         <v>4100</v>
@@ -947,64 +966,70 @@
         <v>4200</v>
       </c>
       <c r="I10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2500</v>
-      </c>
-      <c r="V10" s="3">
-        <v>2500</v>
-      </c>
-      <c r="W10" s="3">
-        <v>2100</v>
       </c>
       <c r="X10" s="3">
         <v>2500</v>
       </c>
       <c r="Y10" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Z10" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="AA10" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,26 +1236,26 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>-400</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>-400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>-100</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>-100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1230,11 +1269,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1245,11 +1284,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1257,19 +1296,25 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1278,10 +1323,10 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1317,10 +1362,10 @@
         <v>200</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
@@ -1338,10 +1383,16 @@
         <v>100</v>
       </c>
       <c r="AA15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,37 +1417,39 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>7100</v>
       </c>
       <c r="E17" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F17" s="3">
         <v>4700</v>
       </c>
       <c r="G17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3900</v>
       </c>
       <c r="M17" s="3">
         <v>3800</v>
@@ -1408,78 +1461,84 @@
         <v>3800</v>
       </c>
       <c r="P17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>2700</v>
       </c>
       <c r="Y17" s="3">
         <v>2500</v>
       </c>
       <c r="Z17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>200</v>
@@ -1497,31 +1556,37 @@
         <v>200</v>
       </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>200</v>
+      </c>
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,29 +1614,31 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1582,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1591,20 +1658,20 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1618,93 +1685,105 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>500</v>
       </c>
       <c r="O21" s="3">
         <v>700</v>
       </c>
       <c r="P21" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>700</v>
+      </c>
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
-      </c>
-      <c r="U21" s="3">
-        <v>700</v>
-      </c>
-      <c r="V21" s="3">
-        <v>600</v>
       </c>
       <c r="W21" s="3">
         <v>700</v>
       </c>
       <c r="X21" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z21" s="3">
         <v>900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,120 +1859,132 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>300</v>
       </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
       </c>
       <c r="S23" s="3">
+        <v>200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>200</v>
+      </c>
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>200</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
-      </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1902,40 +1993,46 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,64 +2108,70 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>200</v>
-      </c>
       <c r="Q26" s="3">
         <v>200</v>
       </c>
       <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>300</v>
       </c>
       <c r="V26" s="3">
         <v>400</v>
@@ -2077,7 +2180,7 @@
         <v>300</v>
       </c>
       <c r="X26" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y26" s="3">
         <v>300</v>
@@ -2086,66 +2189,72 @@
         <v>500</v>
       </c>
       <c r="AA26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>200</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>200</v>
-      </c>
       <c r="Q27" s="3">
         <v>200</v>
       </c>
       <c r="R27" s="3">
+        <v>200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>200</v>
+      </c>
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>300</v>
       </c>
       <c r="V27" s="3">
         <v>400</v>
@@ -2154,7 +2263,7 @@
         <v>300</v>
       </c>
       <c r="X27" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y27" s="3">
         <v>300</v>
@@ -2163,10 +2272,16 @@
         <v>500</v>
       </c>
       <c r="AA27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,11 +2392,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2289,26 +2410,26 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>-100</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>-100</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>400</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
+      <c r="X29" s="3">
+        <v>400</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,29 +2606,35 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2506,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2515,20 +2654,20 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2542,81 +2681,87 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>200</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>200</v>
-      </c>
       <c r="Q33" s="3">
         <v>200</v>
       </c>
       <c r="R33" s="3">
+        <v>200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>700</v>
       </c>
       <c r="W33" s="3">
         <v>300</v>
       </c>
       <c r="X33" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Y33" s="3">
         <v>300</v>
@@ -2625,10 +2770,16 @@
         <v>500</v>
       </c>
       <c r="AA33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,73 +2855,79 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>200</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>200</v>
-      </c>
       <c r="Q35" s="3">
         <v>200</v>
       </c>
       <c r="R35" s="3">
+        <v>200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>200</v>
+      </c>
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>700</v>
       </c>
       <c r="W35" s="3">
         <v>300</v>
       </c>
       <c r="X35" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Y35" s="3">
         <v>300</v>
@@ -2779,92 +2936,104 @@
         <v>500</v>
       </c>
       <c r="AA35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F41" s="3">
         <v>21500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>23900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>22400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>20500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>17100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>16200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>15800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>15000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>17200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>19400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>6100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>5600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>5300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,76 +3254,82 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F43" s="3">
         <v>3800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
-      </c>
-      <c r="S43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>2200</v>
       </c>
       <c r="U43" s="3">
         <v>2200</v>
       </c>
       <c r="V43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X43" s="3">
         <v>1600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1100</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>1300</v>
       </c>
       <c r="Z43" s="3">
         <v>1300</v>
@@ -3152,8 +3337,14 @@
       <c r="AA43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,34 +3420,40 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
-      </c>
-      <c r="E45" s="3">
-        <v>900</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
       </c>
       <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -3265,26 +3462,26 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
-      </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
@@ -3292,99 +3489,111 @@
         <v>200</v>
       </c>
       <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F46" s="3">
         <v>26100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>29100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>27900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>25200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>23900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>21100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>18000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>18200</v>
       </c>
       <c r="P46" s="3">
         <v>18000</v>
       </c>
       <c r="Q46" s="3">
+        <v>18200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>18000</v>
+      </c>
+      <c r="S46" s="3">
         <v>17600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>19000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>21800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>9200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>8000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>7200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>6800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,74 +3669,80 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
       </c>
       <c r="V48" s="3">
+        <v>200</v>
+      </c>
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="W48" s="3">
-        <v>200</v>
-      </c>
-      <c r="X48" s="3">
-        <v>200</v>
-      </c>
       <c r="Y48" s="3">
         <v>200</v>
       </c>
@@ -3537,85 +3752,97 @@
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F49" s="3">
         <v>8800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>9000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>9300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>9500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>9600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>11000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>11400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>11800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>12200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>9800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>10000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>9000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>9400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>9700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>6100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>6000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>5700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3795,32 +4034,32 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
-        <v>200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>200</v>
-      </c>
       <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3831,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>200</v>
@@ -3843,10 +4082,16 @@
         <v>200</v>
       </c>
       <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F54" s="3">
         <v>37000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>40200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>39300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>38000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>37300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>36100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>34900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>34200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>33500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>32400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>30100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>30100</v>
       </c>
       <c r="Q54" s="3">
         <v>30100</v>
       </c>
       <c r="R54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="S54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="T54" s="3">
         <v>29000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>31900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>18400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>17500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>17000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>14300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>14200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>13400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>12900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,58 +4316,60 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
@@ -4117,30 +4378,36 @@
         <v>500</v>
       </c>
       <c r="V57" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z57" s="3">
         <v>600</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>300</v>
       </c>
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>22000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4157,14 +4424,14 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
@@ -4196,11 +4463,11 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
+        <v>300</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
@@ -4211,135 +4478,147 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1600</v>
       </c>
       <c r="W59" s="3">
         <v>1700</v>
       </c>
       <c r="X59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2600</v>
       </c>
       <c r="T60" s="3">
         <v>2600</v>
@@ -4348,25 +4627,31 @@
         <v>2600</v>
       </c>
       <c r="V60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X60" s="3">
         <v>2500</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>2400</v>
       </c>
       <c r="Y60" s="3">
         <v>2200</v>
       </c>
       <c r="Z60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AB60" s="3">
         <v>2100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4404,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
@@ -4416,10 +4701,10 @@
         <v>300</v>
       </c>
       <c r="S61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="U61" s="3">
         <v>600</v>
@@ -4428,10 +4713,10 @@
         <v>600</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
@@ -4442,85 +4727,97 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2200</v>
       </c>
       <c r="K62" s="3">
         <v>2200</v>
       </c>
       <c r="L62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>400</v>
-      </c>
-      <c r="S62" s="3">
-        <v>600</v>
-      </c>
-      <c r="T62" s="3">
-        <v>600</v>
       </c>
       <c r="U62" s="3">
         <v>600</v>
       </c>
       <c r="V62" s="3">
+        <v>600</v>
+      </c>
+      <c r="W62" s="3">
+        <v>600</v>
+      </c>
+      <c r="X62" s="3">
         <v>700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>100</v>
       </c>
-      <c r="Y62" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>200</v>
-      </c>
       <c r="AA62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>7100</v>
       </c>
       <c r="H66" s="3">
         <v>7600</v>
       </c>
       <c r="I66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3800</v>
       </c>
       <c r="U66" s="3">
         <v>3800</v>
       </c>
       <c r="V66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X66" s="3">
         <v>3700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2500</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>2300</v>
       </c>
       <c r="AA66" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F72" s="3">
         <v>10600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>9800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>9200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>7600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>6500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>3100</v>
       </c>
       <c r="T72" s="3">
         <v>3200</v>
       </c>
       <c r="U72" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V72" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W72" s="3">
         <v>2900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>2200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F76" s="3">
         <v>29400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>32200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>31600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>30900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>28500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>27400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>26500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>26200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>26100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>26400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>26300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>26000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>25700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>28100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>14600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>13700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>13200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>12000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>11700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>11000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>10600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,155 +6003,167 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>200</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>200</v>
-      </c>
       <c r="Q81" s="3">
         <v>200</v>
       </c>
       <c r="R81" s="3">
+        <v>200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>700</v>
       </c>
       <c r="W81" s="3">
         <v>300</v>
       </c>
       <c r="X81" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Y81" s="3">
         <v>300</v>
@@ -5783,10 +6172,16 @@
         <v>500</v>
       </c>
       <c r="AA81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,22 +6209,24 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -5844,10 +6241,10 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -5868,17 +6265,17 @@
         <v>400</v>
       </c>
       <c r="T83" s="3">
+        <v>400</v>
+      </c>
+      <c r="U83" s="3">
+        <v>400</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3">
-        <v>200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
-      </c>
       <c r="X83" s="3">
         <v>200</v>
       </c>
@@ -5889,10 +6286,16 @@
         <v>200</v>
       </c>
       <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1000</v>
       </c>
       <c r="K89" s="3">
         <v>1300</v>
       </c>
       <c r="L89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
-      </c>
-      <c r="W89" s="3">
-        <v>600</v>
-      </c>
-      <c r="X89" s="3">
-        <v>800</v>
       </c>
       <c r="Y89" s="3">
         <v>600</v>
       </c>
       <c r="Z89" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB89" s="3">
         <v>700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6411,24 +6852,24 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -6451,16 +6892,22 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,13 +7066,19 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-18000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6628,17 +7087,17 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6649,49 +7108,55 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-2800</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-300</v>
       </c>
       <c r="Y94" s="3">
         <v>-300</v>
       </c>
       <c r="Z94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6770,19 +7237,19 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-200</v>
       </c>
       <c r="V96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X96" s="3">
         <v>-100</v>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,70 +7512,76 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-900</v>
       </c>
       <c r="O100" s="3">
         <v>-200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>13200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7099,13 +7590,19 @@
         <v>-100</v>
       </c>
       <c r="Z100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7113,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -7158,14 +7655,14 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7181,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2800</v>
+        <v>-17000</v>
       </c>
       <c r="E102" s="3">
         <v>400</v>
       </c>
       <c r="F102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>400</v>
+      </c>
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>12600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
-      </c>
-      <c r="W102" s="3">
-        <v>300</v>
-      </c>
-      <c r="X102" s="3">
-        <v>500</v>
       </c>
       <c r="Y102" s="3">
         <v>300</v>
       </c>
       <c r="Z102" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AA102" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,164 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E8" s="3">
         <v>7100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4900</v>
       </c>
       <c r="N8" s="3">
         <v>4900</v>
       </c>
       <c r="O8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="P8" s="3">
         <v>4000</v>
@@ -827,69 +831,72 @@
         <v>4000</v>
       </c>
       <c r="R8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="3">
         <v>4100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1400</v>
       </c>
       <c r="L9" s="3">
         <v>1400</v>
@@ -901,25 +908,25 @@
         <v>1400</v>
       </c>
       <c r="O9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P9" s="3">
         <v>1300</v>
       </c>
       <c r="Q9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R9" s="3">
         <v>1200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1300</v>
       </c>
       <c r="S9" s="3">
         <v>1300</v>
       </c>
       <c r="T9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U9" s="3">
         <v>1100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1000</v>
       </c>
       <c r="V9" s="3">
         <v>1000</v>
@@ -928,16 +935,16 @@
         <v>1000</v>
       </c>
       <c r="X9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y9" s="3">
         <v>900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>900</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>700</v>
       </c>
       <c r="AB9" s="3">
         <v>700</v>
@@ -945,91 +952,97 @@
       <c r="AC9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="3">
         <v>5200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3500</v>
       </c>
       <c r="N10" s="3">
         <v>3500</v>
       </c>
       <c r="O10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="P10" s="3">
         <v>2700</v>
       </c>
       <c r="Q10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R10" s="3">
         <v>2800</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2900</v>
       </c>
       <c r="S10" s="3">
         <v>2900</v>
       </c>
       <c r="T10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U10" s="3">
         <v>2500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2800</v>
-      </c>
-      <c r="W10" s="3">
-        <v>2500</v>
       </c>
       <c r="X10" s="3">
         <v>2500</v>
       </c>
       <c r="Y10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,11 +1262,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1254,11 +1274,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1275,8 +1295,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1290,8 +1310,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1302,22 +1322,25 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>700</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1329,7 +1352,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1368,7 +1391,7 @@
         <v>200</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
@@ -1389,10 +1412,13 @@
         <v>100</v>
       </c>
       <c r="AC15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4300</v>
       </c>
       <c r="L17" s="3">
         <v>4300</v>
       </c>
       <c r="M17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>4000</v>
       </c>
       <c r="S17" s="3">
         <v>4000</v>
       </c>
       <c r="T17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>3200</v>
       </c>
       <c r="W17" s="3">
         <v>3200</v>
       </c>
       <c r="X17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>3000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1000</v>
       </c>
       <c r="I18" s="3">
         <v>1000</v>
       </c>
       <c r="J18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
-        <v>200</v>
-      </c>
       <c r="P18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>200</v>
-      </c>
       <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
-        <v>200</v>
-      </c>
       <c r="T18" s="3">
+        <v>200</v>
+      </c>
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
-        <v>200</v>
-      </c>
       <c r="V18" s="3">
+        <v>200</v>
+      </c>
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,32 +1649,33 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1655,26 +1689,26 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>200</v>
-      </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1691,16 +1725,19 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,82 +1745,85 @@
         <v>500</v>
       </c>
       <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1600</v>
       </c>
       <c r="J21" s="3">
         <v>1600</v>
       </c>
       <c r="K21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1400</v>
       </c>
       <c r="N21" s="3">
         <v>1400</v>
       </c>
       <c r="O21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>700</v>
       </c>
       <c r="R21" s="3">
         <v>700</v>
       </c>
       <c r="S21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T21" s="3">
         <v>600</v>
       </c>
       <c r="U21" s="3">
+        <v>600</v>
+      </c>
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,56 +1905,59 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>700</v>
       </c>
       <c r="H23" s="3">
         <v>700</v>
       </c>
       <c r="I23" s="3">
+        <v>700</v>
+      </c>
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
-        <v>200</v>
-      </c>
       <c r="S23" s="3">
         <v>200</v>
       </c>
@@ -1922,34 +1965,37 @@
         <v>200</v>
       </c>
       <c r="U23" s="3">
+        <v>200</v>
+      </c>
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,82 +2003,85 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>200</v>
-      </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>200</v>
-      </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2163,11 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2123,44 +2175,44 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>800</v>
       </c>
       <c r="N26" s="3">
         <v>800</v>
       </c>
       <c r="O26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>200</v>
-      </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
@@ -2168,37 +2220,40 @@
         <v>200</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>500</v>
       </c>
-      <c r="AC26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2206,44 +2261,44 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>800</v>
       </c>
       <c r="N27" s="3">
         <v>800</v>
       </c>
       <c r="O27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>200</v>
-      </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
@@ -2251,37 +2306,40 @@
         <v>200</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
-      <c r="AC27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2398,8 +2459,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2416,11 +2477,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2428,11 +2489,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>400</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,32 +2679,35 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2651,26 +2721,26 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2687,16 +2757,19 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,44 +2777,44 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>800</v>
       </c>
       <c r="N33" s="3">
         <v>800</v>
       </c>
       <c r="O33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>200</v>
-      </c>
       <c r="R33" s="3">
         <v>200</v>
       </c>
@@ -2749,37 +2822,40 @@
         <v>200</v>
       </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
-      <c r="AC33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +2937,11 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2870,44 +2949,44 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>800</v>
       </c>
       <c r="N35" s="3">
         <v>800</v>
       </c>
       <c r="O35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>200</v>
-      </c>
       <c r="R35" s="3">
         <v>200</v>
       </c>
@@ -2915,125 +2994,131 @@
         <v>200</v>
       </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
-      <c r="AC35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>15800</v>
       </c>
       <c r="Q41" s="3">
         <v>15800</v>
       </c>
       <c r="R41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="S41" s="3">
         <v>15200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>17200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,64 +3350,67 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2100</v>
       </c>
       <c r="Q43" s="3">
         <v>2100</v>
       </c>
       <c r="R43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
-      </c>
-      <c r="U43" s="3">
-        <v>2200</v>
       </c>
       <c r="V43" s="3">
         <v>2200</v>
@@ -3326,13 +3419,13 @@
         <v>2200</v>
       </c>
       <c r="X43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>1300</v>
       </c>
       <c r="AA43" s="3">
         <v>1300</v>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,65 +3522,68 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
       </c>
       <c r="G45" s="3">
+        <v>800</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
-        <v>200</v>
-      </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>200</v>
-      </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
@@ -3495,105 +3594,111 @@
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>400</v>
       </c>
       <c r="AA45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
-        <v>200</v>
-      </c>
       <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E46" s="3">
         <v>9400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>21800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7200</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>6800</v>
       </c>
       <c r="AC46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,55 +3780,58 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2200</v>
       </c>
       <c r="H48" s="3">
         <v>2200</v>
       </c>
       <c r="I48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3732,7 +3840,7 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
@@ -3741,11 +3849,11 @@
         <v>200</v>
       </c>
       <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>100</v>
       </c>
-      <c r="Y48" s="3">
-        <v>200</v>
-      </c>
       <c r="Z48" s="3">
         <v>200</v>
       </c>
@@ -3758,91 +3866,97 @@
       <c r="AC48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E49" s="3">
         <v>54900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,13 +4124,16 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -4040,29 +4160,29 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
-        <v>200</v>
-      </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -4076,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>200</v>
@@ -4088,10 +4208,13 @@
         <v>200</v>
       </c>
       <c r="AC52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,52 +4296,55 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E54" s="3">
         <v>66300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>30100</v>
       </c>
       <c r="R54" s="3">
         <v>30100</v>
@@ -4227,37 +4353,40 @@
         <v>30100</v>
       </c>
       <c r="T54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="U54" s="3">
         <v>29000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,40 +4448,41 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -4360,40 +4491,40 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>300</v>
       </c>
       <c r="AB57" s="3">
         <v>300</v>
@@ -4401,16 +4532,19 @@
       <c r="AC57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>22000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -4430,11 +4564,11 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -4469,8 +4603,8 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
+      <c r="Y58" s="3">
+        <v>300</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
@@ -4484,144 +4618,150 @@
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5500</v>
       </c>
       <c r="G59" s="3">
         <v>5500</v>
       </c>
       <c r="H59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>4000</v>
       </c>
       <c r="N59" s="3">
         <v>4000</v>
       </c>
       <c r="O59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="P59" s="3">
         <v>3300</v>
       </c>
       <c r="Q59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1700</v>
       </c>
       <c r="Z59" s="3">
         <v>1700</v>
       </c>
       <c r="AA59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1900</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>1800</v>
       </c>
       <c r="AC59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E60" s="3">
         <v>31200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>6000</v>
       </c>
       <c r="F60" s="3">
         <v>6000</v>
       </c>
       <c r="G60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3000</v>
       </c>
       <c r="R60" s="3">
         <v>3000</v>
       </c>
       <c r="S60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T60" s="3">
         <v>3300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2600</v>
       </c>
       <c r="U60" s="3">
         <v>2600</v>
@@ -4633,30 +4773,33 @@
         <v>2600</v>
       </c>
       <c r="X60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>2100</v>
       </c>
       <c r="AC60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4695,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>300</v>
@@ -4707,7 +4850,7 @@
         <v>300</v>
       </c>
       <c r="U61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="V61" s="3">
         <v>600</v>
@@ -4719,7 +4862,7 @@
         <v>600</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
@@ -4733,34 +4876,37 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2200</v>
       </c>
       <c r="L62" s="3">
         <v>2200</v>
@@ -4769,28 +4915,28 @@
         <v>2200</v>
       </c>
       <c r="N62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O62" s="3">
         <v>2300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>500</v>
       </c>
       <c r="T62" s="3">
+        <v>500</v>
+      </c>
+      <c r="U62" s="3">
         <v>400</v>
-      </c>
-      <c r="U62" s="3">
-        <v>600</v>
       </c>
       <c r="V62" s="3">
         <v>600</v>
@@ -4799,25 +4945,28 @@
         <v>600</v>
       </c>
       <c r="X62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y62" s="3">
         <v>700</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>100</v>
       </c>
       <c r="Z62" s="3">
         <v>100</v>
       </c>
       <c r="AA62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB62" s="3">
         <v>200</v>
       </c>
       <c r="AC62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,64 +5220,67 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E66" s="3">
         <v>33100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>7600</v>
       </c>
       <c r="K66" s="3">
         <v>7600</v>
       </c>
       <c r="L66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3800</v>
       </c>
       <c r="V66" s="3">
         <v>3800</v>
@@ -5131,25 +5289,28 @@
         <v>3800</v>
       </c>
       <c r="X66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Y66" s="3">
         <v>3700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>3800</v>
       </c>
       <c r="Q72" s="3">
         <v>3800</v>
       </c>
       <c r="R72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S72" s="3">
         <v>3600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E76" s="3">
         <v>33200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6198,102 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6106,44 +6301,44 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>800</v>
       </c>
       <c r="N81" s="3">
         <v>800</v>
       </c>
       <c r="O81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>200</v>
-      </c>
       <c r="R81" s="3">
         <v>200</v>
       </c>
@@ -6151,37 +6346,40 @@
         <v>200</v>
       </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
-      <c r="AC81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,17 +6409,18 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
-        <v>200</v>
-      </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
@@ -6229,7 +6428,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -6247,7 +6446,7 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
@@ -6271,13 +6470,13 @@
         <v>400</v>
       </c>
       <c r="V83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W83" s="3">
         <v>300</v>
       </c>
       <c r="X83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
@@ -6292,10 +6491,13 @@
         <v>200</v>
       </c>
       <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6847,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6858,21 +7079,21 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -6898,16 +7119,19 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,17 +7299,20 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -7093,14 +7323,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -7114,34 +7344,34 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-2800</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-300</v>
       </c>
       <c r="Z94" s="3">
         <v>-300</v>
@@ -7150,13 +7380,16 @@
         <v>-300</v>
       </c>
       <c r="AB94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7243,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-200</v>
@@ -7252,7 +7486,7 @@
         <v>-200</v>
       </c>
       <c r="X96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y96" s="3">
         <v>-100</v>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,82 +7761,85 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>13200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>-100</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7610,11 +7859,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7661,11 +7910,11 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
       <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
-        <v>200</v>
-      </c>
       <c r="AC102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,171 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E8" s="3">
         <v>8600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4900</v>
       </c>
       <c r="O8" s="3">
         <v>4900</v>
       </c>
       <c r="P8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="Q8" s="3">
         <v>4000</v>
@@ -834,72 +838,75 @@
         <v>4000</v>
       </c>
       <c r="S8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T8" s="3">
         <v>4100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1400</v>
       </c>
       <c r="M9" s="3">
         <v>1400</v>
@@ -911,25 +918,25 @@
         <v>1400</v>
       </c>
       <c r="P9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="Q9" s="3">
         <v>1300</v>
       </c>
       <c r="R9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S9" s="3">
         <v>1200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1300</v>
       </c>
       <c r="T9" s="3">
         <v>1300</v>
       </c>
       <c r="U9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V9" s="3">
         <v>1100</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1000</v>
       </c>
       <c r="W9" s="3">
         <v>1000</v>
@@ -938,16 +945,16 @@
         <v>1000</v>
       </c>
       <c r="Y9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z9" s="3">
         <v>900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>900</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>700</v>
       </c>
       <c r="AC9" s="3">
         <v>700</v>
@@ -955,94 +962,100 @@
       <c r="AD9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E10" s="3">
         <v>6800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3500</v>
       </c>
       <c r="O10" s="3">
         <v>3500</v>
       </c>
       <c r="P10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="Q10" s="3">
         <v>2700</v>
       </c>
       <c r="R10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S10" s="3">
         <v>2800</v>
-      </c>
-      <c r="S10" s="3">
-        <v>2900</v>
       </c>
       <c r="T10" s="3">
         <v>2900</v>
       </c>
       <c r="U10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V10" s="3">
         <v>2500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2800</v>
-      </c>
-      <c r="X10" s="3">
-        <v>2500</v>
       </c>
       <c r="Y10" s="3">
         <v>2500</v>
       </c>
       <c r="Z10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1265,11 +1285,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1277,11 +1297,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1298,8 +1318,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1313,8 +1333,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,10 +1363,10 @@
         <v>700</v>
       </c>
       <c r="E15" s="3">
+        <v>700</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1355,7 +1378,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1394,7 +1417,7 @@
         <v>200</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X15" s="3">
         <v>100</v>
@@ -1415,10 +1438,13 @@
         <v>100</v>
       </c>
       <c r="AD15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
         <v>8000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4300</v>
       </c>
       <c r="M17" s="3">
         <v>4300</v>
       </c>
       <c r="N17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>4000</v>
       </c>
       <c r="T17" s="3">
         <v>4000</v>
       </c>
       <c r="U17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3100</v>
-      </c>
-      <c r="W17" s="3">
-        <v>3200</v>
       </c>
       <c r="X17" s="3">
         <v>3200</v>
       </c>
       <c r="Y17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>3000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1000</v>
       </c>
       <c r="J18" s="3">
         <v>1000</v>
       </c>
       <c r="K18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
-        <v>200</v>
-      </c>
       <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
-        <v>200</v>
-      </c>
       <c r="S18" s="3">
+        <v>200</v>
+      </c>
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
-        <v>200</v>
-      </c>
       <c r="U18" s="3">
+        <v>200</v>
+      </c>
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
-        <v>200</v>
-      </c>
       <c r="W18" s="3">
+        <v>200</v>
+      </c>
+      <c r="X18" s="3">
         <v>600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,35 +1683,36 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1692,26 +1726,26 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>200</v>
-      </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1728,102 +1762,108 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="E21" s="3">
         <v>500</v>
       </c>
       <c r="F21" s="3">
+        <v>500</v>
+      </c>
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1600</v>
       </c>
       <c r="K21" s="3">
         <v>1600</v>
       </c>
       <c r="L21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1400</v>
       </c>
       <c r="O21" s="3">
         <v>1400</v>
       </c>
       <c r="P21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>700</v>
       </c>
       <c r="S21" s="3">
         <v>700</v>
       </c>
       <c r="T21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U21" s="3">
         <v>600</v>
       </c>
       <c r="V21" s="3">
+        <v>600</v>
+      </c>
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,59 +1948,62 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>700</v>
       </c>
       <c r="I23" s="3">
         <v>700</v>
       </c>
       <c r="J23" s="3">
+        <v>700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
-        <v>200</v>
-      </c>
       <c r="T23" s="3">
         <v>200</v>
       </c>
@@ -1968,120 +2011,126 @@
         <v>200</v>
       </c>
       <c r="V23" s="3">
+        <v>200</v>
+      </c>
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>200</v>
-      </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
-        <v>200</v>
-      </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
         <v>200</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
       <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,56 +2215,59 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>1400</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>800</v>
       </c>
       <c r="O26" s="3">
         <v>800</v>
       </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>200</v>
-      </c>
       <c r="S26" s="3">
         <v>200</v>
       </c>
@@ -2223,85 +2275,88 @@
         <v>200</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>500</v>
       </c>
-      <c r="AD26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>1400</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>800</v>
       </c>
       <c r="O27" s="3">
         <v>800</v>
       </c>
       <c r="P27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>200</v>
-      </c>
       <c r="S27" s="3">
         <v>200</v>
       </c>
@@ -2309,37 +2364,40 @@
         <v>200</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V27" s="3">
         <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>500</v>
       </c>
-      <c r="AD27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2462,8 +2523,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2480,11 +2541,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2492,11 +2553,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>400</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,35 +2749,38 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2724,26 +2794,26 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2760,64 +2830,67 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>1400</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>800</v>
       </c>
       <c r="O33" s="3">
         <v>800</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>200</v>
-      </c>
       <c r="S33" s="3">
         <v>200</v>
       </c>
@@ -2825,37 +2898,40 @@
         <v>200</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V33" s="3">
         <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>500</v>
       </c>
-      <c r="AD33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,56 +3016,59 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>1400</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>800</v>
       </c>
       <c r="O35" s="3">
         <v>800</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>200</v>
-      </c>
       <c r="S35" s="3">
         <v>200</v>
       </c>
@@ -2997,128 +3076,134 @@
         <v>200</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V35" s="3">
         <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>500</v>
       </c>
-      <c r="AD35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>15800</v>
       </c>
       <c r="R41" s="3">
         <v>15800</v>
       </c>
       <c r="S41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="T41" s="3">
         <v>15200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,67 +3443,70 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2100</v>
       </c>
       <c r="R43" s="3">
         <v>2100</v>
       </c>
       <c r="S43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T43" s="3">
         <v>2600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
-      </c>
-      <c r="V43" s="3">
-        <v>2200</v>
       </c>
       <c r="W43" s="3">
         <v>2200</v>
@@ -3422,13 +3515,13 @@
         <v>2200</v>
       </c>
       <c r="Y43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z43" s="3">
         <v>1600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>1300</v>
       </c>
       <c r="AB43" s="3">
         <v>1300</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,68 +3621,71 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>800</v>
       </c>
       <c r="G45" s="3">
         <v>800</v>
       </c>
       <c r="H45" s="3">
+        <v>800</v>
+      </c>
+      <c r="I45" s="3">
         <v>900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
       </c>
       <c r="K45" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
       </c>
       <c r="M45" s="3">
+        <v>400</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>200</v>
-      </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
-        <v>200</v>
-      </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>200</v>
-      </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
@@ -3597,108 +3696,114 @@
         <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
         <v>400</v>
       </c>
       <c r="AB45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC45" s="3">
         <v>300</v>
       </c>
-      <c r="AC45" s="3">
-        <v>200</v>
-      </c>
       <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>29100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>21800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7200</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>6800</v>
       </c>
       <c r="AD46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,58 +3888,61 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2200</v>
       </c>
       <c r="I48" s="3">
         <v>2200</v>
       </c>
       <c r="J48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3843,7 +3951,7 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
@@ -3852,11 +3960,11 @@
         <v>200</v>
       </c>
       <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>100</v>
       </c>
-      <c r="Z48" s="3">
-        <v>200</v>
-      </c>
       <c r="AA48" s="3">
         <v>200</v>
       </c>
@@ -3869,94 +3977,100 @@
       <c r="AD48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E49" s="3">
         <v>54200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,16 +4244,19 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -4163,29 +4283,29 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
-        <v>200</v>
-      </c>
       <c r="S52" s="3">
         <v>200</v>
       </c>
       <c r="T52" s="3">
+        <v>200</v>
+      </c>
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
@@ -4199,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
         <v>200</v>
@@ -4211,10 +4331,13 @@
         <v>200</v>
       </c>
       <c r="AD52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,55 +4422,58 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E54" s="3">
         <v>64600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>30100</v>
       </c>
       <c r="S54" s="3">
         <v>30100</v>
@@ -4356,37 +4482,40 @@
         <v>30100</v>
       </c>
       <c r="U54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="V54" s="3">
         <v>29000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,43 +4579,44 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
       </c>
       <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -4494,40 +4625,40 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>300</v>
       </c>
       <c r="AC57" s="3">
         <v>300</v>
@@ -4535,19 +4666,22 @@
       <c r="AD57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -4567,11 +4701,11 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -4606,8 +4740,8 @@
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
+      <c r="Z58" s="3">
+        <v>300</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4621,150 +4755,156 @@
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>5500</v>
       </c>
       <c r="H59" s="3">
         <v>5500</v>
       </c>
       <c r="I59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>4000</v>
       </c>
       <c r="O59" s="3">
         <v>4000</v>
       </c>
       <c r="P59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="Q59" s="3">
         <v>3300</v>
       </c>
       <c r="R59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>1700</v>
       </c>
       <c r="AA59" s="3">
         <v>1700</v>
       </c>
       <c r="AB59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1900</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>1800</v>
       </c>
       <c r="AD59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E60" s="3">
         <v>10200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>6000</v>
       </c>
       <c r="G60" s="3">
         <v>6000</v>
       </c>
       <c r="H60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>3000</v>
       </c>
       <c r="S60" s="3">
         <v>3000</v>
       </c>
       <c r="T60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U60" s="3">
         <v>3300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2600</v>
       </c>
       <c r="V60" s="3">
         <v>2600</v>
@@ -4776,34 +4916,37 @@
         <v>2600</v>
       </c>
       <c r="Y60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2200</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>2100</v>
       </c>
       <c r="AD60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E61" s="3">
         <v>18900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -4841,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
@@ -4853,7 +4996,7 @@
         <v>300</v>
       </c>
       <c r="V61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W61" s="3">
         <v>600</v>
@@ -4865,7 +5008,7 @@
         <v>600</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -4879,37 +5022,40 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2200</v>
       </c>
       <c r="M62" s="3">
         <v>2200</v>
@@ -4918,28 +5064,28 @@
         <v>2200</v>
       </c>
       <c r="O62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P62" s="3">
         <v>2300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
-      </c>
-      <c r="S62" s="3">
-        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>500</v>
       </c>
       <c r="U62" s="3">
+        <v>500</v>
+      </c>
+      <c r="V62" s="3">
         <v>400</v>
-      </c>
-      <c r="V62" s="3">
-        <v>600</v>
       </c>
       <c r="W62" s="3">
         <v>600</v>
@@ -4948,25 +5094,28 @@
         <v>600</v>
       </c>
       <c r="Y62" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z62" s="3">
         <v>700</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>100</v>
       </c>
       <c r="AA62" s="3">
         <v>100</v>
       </c>
       <c r="AB62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC62" s="3">
         <v>200</v>
       </c>
       <c r="AD62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,67 +5378,70 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E66" s="3">
         <v>31200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>7600</v>
       </c>
       <c r="L66" s="3">
         <v>7600</v>
       </c>
       <c r="M66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>3800</v>
       </c>
       <c r="W66" s="3">
         <v>3800</v>
@@ -5292,25 +5450,28 @@
         <v>3800</v>
       </c>
       <c r="Y66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Z66" s="3">
         <v>3700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E72" s="3">
         <v>11000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3800</v>
       </c>
       <c r="R72" s="3">
         <v>3800</v>
       </c>
       <c r="S72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T72" s="3">
         <v>3600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E76" s="3">
         <v>33400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,147 +6390,153 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>1400</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>800</v>
       </c>
       <c r="O81" s="3">
         <v>800</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>200</v>
-      </c>
       <c r="S81" s="3">
         <v>200</v>
       </c>
@@ -6349,37 +6544,40 @@
         <v>200</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V81" s="3">
         <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>500</v>
       </c>
-      <c r="AD81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6419,11 +6618,11 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
-        <v>200</v>
-      </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
@@ -6431,7 +6630,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -6449,7 +6648,7 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
@@ -6473,13 +6672,13 @@
         <v>400</v>
       </c>
       <c r="W83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X83" s="3">
         <v>300</v>
       </c>
       <c r="Y83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
@@ -6494,10 +6693,13 @@
         <v>200</v>
       </c>
       <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,13 +7264,14 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -7068,11 +7289,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -7082,21 +7303,21 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -7122,16 +7343,19 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,20 +7529,23 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -7326,14 +7556,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -7347,34 +7577,34 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-2800</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-300</v>
       </c>
       <c r="AA94" s="3">
         <v>-300</v>
@@ -7383,13 +7613,16 @@
         <v>-300</v>
       </c>
       <c r="AC94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7480,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-200</v>
@@ -7489,7 +7723,7 @@
         <v>-200</v>
       </c>
       <c r="Y96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z96" s="3">
         <v>-100</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,85 +8007,88 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-2900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>13200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>-100</v>
@@ -7850,23 +8096,26 @@
       <c r="AD100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -7913,11 +8162,11 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
-        <v>200</v>
-      </c>
       <c r="T102" s="3">
+        <v>200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
-        <v>200</v>
-      </c>
       <c r="AD102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ISDR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>ISDR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,174 +665,178 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E8" s="3">
         <v>9700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4900</v>
       </c>
       <c r="P8" s="3">
         <v>4900</v>
       </c>
       <c r="Q8" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="R8" s="3">
         <v>4000</v>
@@ -841,75 +845,78 @@
         <v>4000</v>
       </c>
       <c r="T8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U8" s="3">
         <v>4100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1400</v>
       </c>
       <c r="N9" s="3">
         <v>1400</v>
@@ -921,25 +928,25 @@
         <v>1400</v>
       </c>
       <c r="Q9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="R9" s="3">
         <v>1300</v>
       </c>
       <c r="S9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T9" s="3">
         <v>1200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1300</v>
       </c>
       <c r="U9" s="3">
         <v>1300</v>
       </c>
       <c r="V9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W9" s="3">
         <v>1100</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1000</v>
       </c>
       <c r="X9" s="3">
         <v>1000</v>
@@ -948,16 +955,16 @@
         <v>1000</v>
       </c>
       <c r="Z9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA9" s="3">
         <v>900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>900</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>700</v>
       </c>
       <c r="AD9" s="3">
         <v>700</v>
@@ -965,97 +972,103 @@
       <c r="AE9" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E10" s="3">
         <v>7400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3500</v>
       </c>
       <c r="P10" s="3">
         <v>3500</v>
       </c>
       <c r="Q10" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="R10" s="3">
         <v>2700</v>
       </c>
       <c r="S10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T10" s="3">
         <v>2800</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2900</v>
       </c>
       <c r="U10" s="3">
         <v>2900</v>
       </c>
       <c r="V10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W10" s="3">
         <v>2500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2800</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>2500</v>
       </c>
       <c r="Z10" s="3">
         <v>2500</v>
       </c>
       <c r="AA10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB10" s="3">
         <v>2100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,11 +1308,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1300,11 +1320,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1321,8 +1341,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1336,8 +1356,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1348,14 +1368,17 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,10 +1389,10 @@
         <v>700</v>
       </c>
       <c r="F15" s="3">
+        <v>700</v>
+      </c>
+      <c r="G15" s="3">
         <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1381,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1420,7 +1443,7 @@
         <v>200</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y15" s="3">
         <v>100</v>
@@ -1441,10 +1464,13 @@
         <v>100</v>
       </c>
       <c r="AE15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4300</v>
       </c>
       <c r="N17" s="3">
         <v>4300</v>
       </c>
       <c r="O17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>4000</v>
       </c>
       <c r="U17" s="3">
         <v>4000</v>
       </c>
       <c r="V17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3100</v>
-      </c>
-      <c r="X17" s="3">
-        <v>3200</v>
       </c>
       <c r="Y17" s="3">
         <v>3200</v>
       </c>
       <c r="Z17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>3000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1000</v>
       </c>
       <c r="K18" s="3">
         <v>1000</v>
       </c>
       <c r="L18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
-        <v>200</v>
-      </c>
       <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
-        <v>200</v>
-      </c>
       <c r="T18" s="3">
+        <v>200</v>
+      </c>
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
-        <v>200</v>
-      </c>
       <c r="V18" s="3">
+        <v>200</v>
+      </c>
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
-        <v>200</v>
-      </c>
       <c r="X18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,38 +1717,39 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1729,26 +1763,26 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>200</v>
-      </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1765,105 +1799,111 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>2600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>500</v>
       </c>
       <c r="F21" s="3">
         <v>500</v>
       </c>
       <c r="G21" s="3">
+        <v>500</v>
+      </c>
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1600</v>
       </c>
       <c r="L21" s="3">
         <v>1600</v>
       </c>
       <c r="M21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1400</v>
       </c>
       <c r="P21" s="3">
         <v>1400</v>
       </c>
       <c r="Q21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>700</v>
       </c>
       <c r="T21" s="3">
         <v>700</v>
       </c>
       <c r="U21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V21" s="3">
         <v>600</v>
       </c>
       <c r="W21" s="3">
+        <v>600</v>
+      </c>
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,62 +1991,65 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>700</v>
       </c>
       <c r="J23" s="3">
         <v>700</v>
       </c>
       <c r="K23" s="3">
+        <v>700</v>
+      </c>
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
-        <v>200</v>
-      </c>
       <c r="U23" s="3">
         <v>200</v>
       </c>
@@ -2014,123 +2057,129 @@
         <v>200</v>
       </c>
       <c r="W23" s="3">
+        <v>200</v>
+      </c>
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>200</v>
-      </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="3">
         <v>200</v>
       </c>
       <c r="AC24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD24" s="3">
         <v>0</v>
       </c>
       <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,59 +2267,62 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>800</v>
       </c>
       <c r="P26" s="3">
         <v>800</v>
       </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
       <c r="T26" s="3">
         <v>200</v>
       </c>
@@ -2278,88 +2330,91 @@
         <v>200</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W26" s="3">
         <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>500</v>
       </c>
-      <c r="AE26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>800</v>
       </c>
       <c r="P27" s="3">
         <v>800</v>
       </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R27" s="3">
+        <v>200</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
       <c r="T27" s="3">
         <v>200</v>
       </c>
@@ -2367,37 +2422,40 @@
         <v>200</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W27" s="3">
         <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>500</v>
       </c>
-      <c r="AE27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2526,8 +2587,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2544,11 +2605,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2556,11 +2617,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>400</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,38 +2819,41 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2797,26 +2867,26 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2833,67 +2903,70 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>800</v>
       </c>
       <c r="P33" s="3">
         <v>800</v>
       </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R33" s="3">
+        <v>200</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
       <c r="T33" s="3">
         <v>200</v>
       </c>
@@ -2901,37 +2974,40 @@
         <v>200</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W33" s="3">
         <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>500</v>
       </c>
-      <c r="AE33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,59 +3095,62 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>800</v>
       </c>
       <c r="P35" s="3">
         <v>800</v>
       </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R35" s="3">
+        <v>200</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
       <c r="T35" s="3">
         <v>200</v>
       </c>
@@ -3079,131 +3158,137 @@
         <v>200</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W35" s="3">
         <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>500</v>
       </c>
-      <c r="AE35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>23900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>15800</v>
       </c>
       <c r="S41" s="3">
         <v>15800</v>
       </c>
       <c r="T41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="U41" s="3">
         <v>15200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,61 +3548,61 @@
         <v>4300</v>
       </c>
       <c r="E43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2100</v>
       </c>
       <c r="S43" s="3">
         <v>2100</v>
       </c>
       <c r="T43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U43" s="3">
         <v>2600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
-      </c>
-      <c r="W43" s="3">
-        <v>2200</v>
       </c>
       <c r="X43" s="3">
         <v>2200</v>
@@ -3518,13 +3611,13 @@
         <v>2200</v>
       </c>
       <c r="Z43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA43" s="3">
         <v>1600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>1300</v>
       </c>
       <c r="AC43" s="3">
         <v>1300</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,71 +3720,74 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>800</v>
       </c>
       <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
         <v>900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>800</v>
       </c>
       <c r="L45" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
       <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>200</v>
-      </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
-        <v>200</v>
-      </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
-        <v>200</v>
-      </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
@@ -3699,111 +3798,117 @@
         <v>200</v>
       </c>
       <c r="AA45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AB45" s="3">
         <v>400</v>
       </c>
       <c r="AC45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD45" s="3">
         <v>300</v>
       </c>
-      <c r="AD45" s="3">
-        <v>200</v>
-      </c>
       <c r="AE45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E46" s="3">
         <v>10900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>29100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>21800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7200</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>6800</v>
       </c>
       <c r="AE46" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,61 +3996,64 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2200</v>
       </c>
       <c r="J48" s="3">
         <v>2200</v>
       </c>
       <c r="K48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3954,7 +4062,7 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
@@ -3963,11 +4071,11 @@
         <v>200</v>
       </c>
       <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>100</v>
       </c>
-      <c r="AA48" s="3">
-        <v>200</v>
-      </c>
       <c r="AB48" s="3">
         <v>200</v>
       </c>
@@ -3980,97 +4088,103 @@
       <c r="AE48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E49" s="3">
         <v>53600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>9700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,19 +4364,22 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>200</v>
-      </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -4286,29 +4406,29 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
-        <v>200</v>
-      </c>
       <c r="T52" s="3">
         <v>200</v>
       </c>
       <c r="U52" s="3">
+        <v>200</v>
+      </c>
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
@@ -4322,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>200</v>
@@ -4334,10 +4454,13 @@
         <v>200</v>
       </c>
       <c r="AE52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,58 +4548,61 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E54" s="3">
         <v>66600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>30100</v>
       </c>
       <c r="T54" s="3">
         <v>30100</v>
@@ -4485,37 +4611,40 @@
         <v>30100</v>
       </c>
       <c r="V54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="W54" s="3">
         <v>29000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>13400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,37 +4720,37 @@
         <v>1300</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
+        <v>700</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -4628,40 +4759,40 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>600</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>300</v>
       </c>
       <c r="AD57" s="3">
         <v>300</v>
@@ -4669,22 +4800,25 @@
       <c r="AE57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4704,11 +4838,11 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -4743,8 +4877,8 @@
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
+      <c r="AA58" s="3">
+        <v>300</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
@@ -4758,156 +4892,162 @@
       <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E59" s="3">
         <v>8800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>5500</v>
       </c>
       <c r="I59" s="3">
         <v>5500</v>
       </c>
       <c r="J59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>4000</v>
       </c>
       <c r="P59" s="3">
         <v>4000</v>
       </c>
       <c r="Q59" s="3">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="R59" s="3">
         <v>3300</v>
       </c>
       <c r="S59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1600</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>1700</v>
       </c>
       <c r="AB59" s="3">
         <v>1700</v>
       </c>
       <c r="AC59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1900</v>
-      </c>
-      <c r="AD59" s="3">
-        <v>1800</v>
       </c>
       <c r="AE59" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E60" s="3">
         <v>12100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>6000</v>
       </c>
       <c r="H60" s="3">
         <v>6000</v>
       </c>
       <c r="I60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3000</v>
       </c>
       <c r="T60" s="3">
         <v>3000</v>
       </c>
       <c r="U60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V60" s="3">
         <v>3300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>2600</v>
       </c>
       <c r="W60" s="3">
         <v>2600</v>
@@ -4919,37 +5059,40 @@
         <v>2600</v>
       </c>
       <c r="Z60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA60" s="3">
         <v>2500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2200</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>2100</v>
       </c>
       <c r="AE60" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E61" s="3">
         <v>17900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4987,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
@@ -4999,7 +5142,7 @@
         <v>300</v>
       </c>
       <c r="W61" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="X61" s="3">
         <v>600</v>
@@ -5011,7 +5154,7 @@
         <v>600</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
@@ -5025,40 +5168,43 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2200</v>
       </c>
       <c r="N62" s="3">
         <v>2200</v>
@@ -5067,28 +5213,28 @@
         <v>2200</v>
       </c>
       <c r="P62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>400</v>
-      </c>
-      <c r="T62" s="3">
-        <v>500</v>
       </c>
       <c r="U62" s="3">
         <v>500</v>
       </c>
       <c r="V62" s="3">
+        <v>500</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
-      </c>
-      <c r="W62" s="3">
-        <v>600</v>
       </c>
       <c r="X62" s="3">
         <v>600</v>
@@ -5097,25 +5243,28 @@
         <v>600</v>
       </c>
       <c r="Z62" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA62" s="3">
         <v>700</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>100</v>
       </c>
       <c r="AB62" s="3">
         <v>100</v>
       </c>
       <c r="AC62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD62" s="3">
         <v>200</v>
       </c>
       <c r="AE62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,70 +5536,73 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E66" s="3">
         <v>31400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7600</v>
       </c>
       <c r="M66" s="3">
         <v>7600</v>
       </c>
       <c r="N66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>3800</v>
       </c>
       <c r="X66" s="3">
         <v>3800</v>
@@ -5453,25 +5611,28 @@
         <v>3800</v>
       </c>
       <c r="Z66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AA66" s="3">
         <v>3700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E72" s="3">
         <v>12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3800</v>
       </c>
       <c r="S72" s="3">
         <v>3800</v>
       </c>
       <c r="T72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U72" s="3">
         <v>3600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E76" s="3">
         <v>35200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>28100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,153 +6582,159 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>800</v>
       </c>
       <c r="P81" s="3">
         <v>800</v>
       </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R81" s="3">
+        <v>200</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
       <c r="T81" s="3">
         <v>200</v>
       </c>
@@ -6547,37 +6742,40 @@
         <v>200</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W81" s="3">
         <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>500</v>
       </c>
-      <c r="AE81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6621,11 +6820,11 @@
         <v>700</v>
       </c>
       <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
-        <v>200</v>
-      </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
@@ -6633,7 +6832,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -6651,7 +6850,7 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>400</v>
@@ -6675,13 +6874,13 @@
         <v>400</v>
       </c>
       <c r="X83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y83" s="3">
         <v>300</v>
       </c>
       <c r="Z83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA83" s="3">
         <v>200</v>
@@ -6696,10 +6895,13 @@
         <v>200</v>
       </c>
       <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7274,7 +7495,7 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -7292,11 +7513,11 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -7306,21 +7527,21 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -7346,16 +7567,19 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7541,14 +7771,14 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -7559,14 +7789,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -7580,34 +7810,34 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-2800</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-1900</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-300</v>
       </c>
       <c r="AB94" s="3">
         <v>-300</v>
@@ -7616,13 +7846,16 @@
         <v>-300</v>
       </c>
       <c r="AD94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7717,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>-200</v>
@@ -7726,7 +7960,7 @@
         <v>-200</v>
       </c>
       <c r="Z96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA96" s="3">
         <v>-100</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,79 +8265,79 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-2900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>13200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
         <v>-100</v>
@@ -8099,26 +8345,29 @@
       <c r="AE100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -8165,11 +8414,11 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
-        <v>200</v>
-      </c>
       <c r="U102" s="3">
+        <v>200</v>
+      </c>
+      <c r="V102" s="3">
         <v>-2300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>300</v>
       </c>
-      <c r="AD102" s="3">
-        <v>200</v>
-      </c>
       <c r="AE102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF102" s="3">
         <v>100</v>
       </c>
     </row>
